--- a/src/final/unblurry/unblurry_results.xlsx
+++ b/src/final/unblurry/unblurry_results.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
-    <sheet name="NN (v)" sheetId="4" r:id="rId1"/>
-    <sheet name="NN (u)" sheetId="5" r:id="rId2"/>
-    <sheet name="NN (Trainlength)" sheetId="12" r:id="rId3"/>
-    <sheet name="RBF (v)" sheetId="8" r:id="rId4"/>
-    <sheet name="RBF (u)" sheetId="10" r:id="rId5"/>
-    <sheet name="ESN (v)" sheetId="13" r:id="rId6"/>
-    <sheet name="ESN (u)" sheetId="15" r:id="rId7"/>
+    <sheet name="Summary" sheetId="16" r:id="rId1"/>
+    <sheet name="NN (v)" sheetId="4" r:id="rId2"/>
+    <sheet name="NN (u)" sheetId="5" r:id="rId3"/>
+    <sheet name="NN (Trainlength)" sheetId="12" r:id="rId4"/>
+    <sheet name="RBF (v)" sheetId="8" r:id="rId5"/>
+    <sheet name="RBF (u)" sheetId="10" r:id="rId6"/>
+    <sheet name="ESN (v)" sheetId="13" r:id="rId7"/>
+    <sheet name="ESN (u)" sheetId="15" r:id="rId8"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -30,15 +31,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="38">
   <si>
     <t>MSE</t>
-  </si>
-  <si>
-    <t>u -&gt; v</t>
-  </si>
-  <si>
-    <t>v -&gt; h</t>
   </si>
   <si>
     <t>RBF</t>
@@ -89,13 +84,7 @@
     <t>width</t>
   </si>
   <si>
-    <t>(sigma=7, sigmaskip=1, ddim=3, k=5)</t>
-  </si>
-  <si>
     <t>reg_param</t>
-  </si>
-  <si>
-    <t>(sigma=3, sigma_skip=1, ddim=3, k=5)</t>
   </si>
   <si>
     <t>linear prediction</t>
@@ -130,15 +119,43 @@
   <si>
     <t>blurred value</t>
   </si>
+  <si>
+    <t>(sigma=3, sigmaskip=1, ddim=3, k=5)</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>(sigma=3, sigma_skip=1, ddim=4, k=5)</t>
+  </si>
+  <si>
+    <t>best parameters {'spectral_radius': 0.95, 'noise_level': 1e-05, 'sparseness': 0.1, 'leak_rate': 0.2, 'regression_parameters': [0.0005], 'random_seed': 41, 'n_reservoir': 400}</t>
+  </si>
+  <si>
+    <t>WARNUNG</t>
+  </si>
+  <si>
+    <t>MACHT KEINEN SINN!</t>
+  </si>
+  <si>
+    <t>WIESO SOLL DAS KEINEN SINN MACHEN?!</t>
+  </si>
+  <si>
+    <t>Best</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
+    <numFmt numFmtId="166" formatCode="[h]:mm:ss;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +220,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -272,7 +297,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -306,12 +331,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="11" fontId="4" fillId="3" borderId="1" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="2" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Ausgabe" xfId="2" builtinId="21"/>
@@ -3023,10 +3055,441 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q84"/>
+  <dimension ref="B4:M16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:M1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="13" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B5" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="29"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <f>'NN (v)'!B$8</f>
+        <v>15000</v>
+      </c>
+      <c r="E6" s="1">
+        <f>'NN (v)'!C$8</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <f>'NN (v)'!D$8</f>
+        <v>1</v>
+      </c>
+      <c r="G6" s="30">
+        <f>'NN (v)'!G$8</f>
+        <v>4.8611111111111104E-4</v>
+      </c>
+      <c r="H6" s="22">
+        <f>'NN (v)'!H$8</f>
+        <v>6.2168842591083698E-2</v>
+      </c>
+      <c r="I6" s="22">
+        <f>'NN (v)'!I$8</f>
+        <v>6.2168842591083698E-2</v>
+      </c>
+      <c r="J6" s="10">
+        <f>'NN (v)'!J$8</f>
+        <v>0.91364203753316653</v>
+      </c>
+      <c r="K6" s="10">
+        <f>'NN (v)'!K$8</f>
+        <v>0.95584624157505926</v>
+      </c>
+      <c r="L6" s="10">
+        <f>'NN (v)'!L$8</f>
+        <v>1.698034540358438</v>
+      </c>
+      <c r="M6" s="10">
+        <f>'NN (v)'!M$8</f>
+        <v>1.3030865436947916</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <f>'RBF (v)'!B$8</f>
+        <v>15000</v>
+      </c>
+      <c r="E7" s="1">
+        <f>'RBF (v)'!C$8</f>
+        <v>5</v>
+      </c>
+      <c r="F7" s="1">
+        <f>'RBF (v)'!D$8</f>
+        <v>2</v>
+      </c>
+      <c r="G7" s="30">
+        <f>'RBF (v)'!G$8</f>
+        <v>2.1319444444444443E-2</v>
+      </c>
+      <c r="H7" s="22">
+        <f>'RBF (v)'!H$8</f>
+        <v>3.2522046608038299E-2</v>
+      </c>
+      <c r="I7" s="22">
+        <f>'RBF (v)'!I$8</f>
+        <v>3.2409215529695501E-2</v>
+      </c>
+      <c r="J7" s="10">
+        <f>'RBF (v)'!J$8</f>
+        <v>0.47794856216252374</v>
+      </c>
+      <c r="K7" s="10">
+        <f>'RBF (v)'!K$8</f>
+        <v>0.69133824005512945</v>
+      </c>
+      <c r="L7" s="10">
+        <f>'RBF (v)'!L$8</f>
+        <v>0.88828352213068573</v>
+      </c>
+      <c r="M7" s="10">
+        <f>'RBF (v)'!M$8</f>
+        <v>0.94248794269777569</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
+        <f>'ESN (v)'!B$8</f>
+        <v>15000</v>
+      </c>
+      <c r="E8" s="1">
+        <f>'ESN (v)'!C$8</f>
+        <v>7</v>
+      </c>
+      <c r="F8" s="1">
+        <f>'ESN (v)'!D$8</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="30">
+        <f>'ESN (v)'!L$8</f>
+        <v>1.7824074074074076E-2</v>
+      </c>
+      <c r="H8" s="22">
+        <f>'ESN (v)'!M$8</f>
+        <v>2.44919597545105E-2</v>
+      </c>
+      <c r="I8" s="22">
+        <f>'ESN (v)'!N$8</f>
+        <v>2.41045603907089E-2</v>
+      </c>
+      <c r="J8" s="10">
+        <f>'ESN (v)'!O$8</f>
+        <v>0.35993727855729124</v>
+      </c>
+      <c r="K8" s="10">
+        <f>'ESN (v)'!P$8</f>
+        <v>0.59994772985426925</v>
+      </c>
+      <c r="L8" s="10">
+        <f>'ESN (v)'!Q$8</f>
+        <v>0.66895557148738383</v>
+      </c>
+      <c r="M8" s="10">
+        <f>'ESN (v)'!R$8</f>
+        <v>0.81789704210700254</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="7" t="str">
+        <f>INDEX(C6:C8,MATCH(MIN($H$6:$H$8),$H$6:$H$8,))</f>
+        <v>ESN</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" ref="D9:M9" si="0">INDEX(D6:D8,MATCH(MIN($H$6:$H$8),$H$6:$H$8,))</f>
+        <v>15000</v>
+      </c>
+      <c r="E9" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="31">
+        <f t="shared" si="0"/>
+        <v>1.7824074074074076E-2</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="0"/>
+        <v>2.44919597545105E-2</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" si="0"/>
+        <v>2.41045603907089E-2</v>
+      </c>
+      <c r="J9" s="8">
+        <f t="shared" si="0"/>
+        <v>0.35993727855729124</v>
+      </c>
+      <c r="K9" s="8">
+        <f t="shared" si="0"/>
+        <v>0.59994772985426925</v>
+      </c>
+      <c r="L9" s="8">
+        <f t="shared" si="0"/>
+        <v>0.66895557148738383</v>
+      </c>
+      <c r="M9" s="8">
+        <f t="shared" si="0"/>
+        <v>0.81789704210700254</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B12" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="29"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <f>'NN (u)'!B$8</f>
+        <v>15000</v>
+      </c>
+      <c r="E13" s="1">
+        <f>'NN (u)'!C$8</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <f>'NN (u)'!D$8</f>
+        <v>1</v>
+      </c>
+      <c r="G13" s="30">
+        <f>'NN (u)'!G$8</f>
+        <v>6.134259259259259E-4</v>
+      </c>
+      <c r="H13" s="22">
+        <f>'NN (u)'!H$8</f>
+        <v>0.10089096536641599</v>
+      </c>
+      <c r="I13" s="22">
+        <f>'NN (u)'!I$8</f>
+        <v>0.10089096536641599</v>
+      </c>
+      <c r="J13" s="10">
+        <f>'NN (u)'!J$8</f>
+        <v>0.6768889076934077</v>
+      </c>
+      <c r="K13" s="10">
+        <f>'NN (u)'!K$8</f>
+        <v>0.82273258577341379</v>
+      </c>
+      <c r="L13" s="10">
+        <f>'NN (u)'!L$8</f>
+        <v>1.2762082182049457</v>
+      </c>
+      <c r="M13" s="10">
+        <f>'NN (u)'!M$8</f>
+        <v>1.1296938603909228</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <f>'RBF (u)'!B$8</f>
+        <v>15000</v>
+      </c>
+      <c r="E14" s="1">
+        <f>'RBF (u)'!C$8</f>
+        <v>3</v>
+      </c>
+      <c r="F14" s="1">
+        <f>'RBF (u)'!D$8</f>
+        <v>1</v>
+      </c>
+      <c r="G14" s="30">
+        <f>'RBF (u)'!G$8</f>
+        <v>2.1296296296296299E-2</v>
+      </c>
+      <c r="H14" s="22">
+        <f>'RBF (u)'!H$8</f>
+        <v>3.89878786710674E-2</v>
+      </c>
+      <c r="I14" s="22">
+        <f>'RBF (u)'!I$8</f>
+        <v>3.8450489086693303E-2</v>
+      </c>
+      <c r="J14" s="10">
+        <f>'RBF (u)'!J$8</f>
+        <v>0.26157409150657834</v>
+      </c>
+      <c r="K14" s="10">
+        <f>'RBF (u)'!K$8</f>
+        <v>0.51144314591807594</v>
+      </c>
+      <c r="L14" s="10">
+        <f>'RBF (u)'!L$8</f>
+        <v>0.4931725153950825</v>
+      </c>
+      <c r="M14" s="10">
+        <f>'RBF (u)'!M$8</f>
+        <v>0.70226242630165148</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1">
+        <f>'ESN (u)'!B$8</f>
+        <v>15000</v>
+      </c>
+      <c r="E15" s="1">
+        <f>'ESN (u)'!C$8</f>
+        <v>7</v>
+      </c>
+      <c r="F15" s="1">
+        <f>'ESN (u)'!D$8</f>
+        <v>1</v>
+      </c>
+      <c r="G15" s="30">
+        <f>'ESN (u)'!L$8</f>
+        <v>1.8553240740740742E-2</v>
+      </c>
+      <c r="H15" s="22">
+        <f>'ESN (u)'!M$8</f>
+        <v>2.4383616789405101E-2</v>
+      </c>
+      <c r="I15" s="22">
+        <f>'ESN (u)'!N$8</f>
+        <v>2.3277842710800099E-2</v>
+      </c>
+      <c r="J15" s="10">
+        <f>'ESN (u)'!O$8</f>
+        <v>0.16359244531214631</v>
+      </c>
+      <c r="K15" s="10">
+        <f>'ESN (u)'!P$8</f>
+        <v>0.40446562933350261</v>
+      </c>
+      <c r="L15" s="10">
+        <f>'ESN (u)'!Q$8</f>
+        <v>0.30843764873477414</v>
+      </c>
+      <c r="M15" s="10">
+        <f>'ESN (u)'!R$8</f>
+        <v>0.55537163119372068</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="7" t="str">
+        <f>INDEX(C13:C15,MATCH(MIN($H$6:$H$8),$H$6:$H$8,))</f>
+        <v>ESN</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" ref="D16" si="1">INDEX(D13:D15,MATCH(MIN($H$6:$H$8),$H$6:$H$8,))</f>
+        <v>15000</v>
+      </c>
+      <c r="E16" s="7">
+        <f t="shared" ref="E16" si="2">INDEX(E13:E15,MATCH(MIN($H$6:$H$8),$H$6:$H$8,))</f>
+        <v>7</v>
+      </c>
+      <c r="F16" s="7">
+        <f t="shared" ref="F16" si="3">INDEX(F13:F15,MATCH(MIN($H$6:$H$8),$H$6:$H$8,))</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="31">
+        <f t="shared" ref="G16" si="4">INDEX(G13:G15,MATCH(MIN($H$6:$H$8),$H$6:$H$8,))</f>
+        <v>1.8553240740740742E-2</v>
+      </c>
+      <c r="H16" s="7">
+        <f t="shared" ref="H16" si="5">INDEX(H13:H15,MATCH(MIN($H$6:$H$8),$H$6:$H$8,))</f>
+        <v>2.4383616789405101E-2</v>
+      </c>
+      <c r="I16" s="7">
+        <f t="shared" ref="I16" si="6">INDEX(I13:I15,MATCH(MIN($H$6:$H$8),$H$6:$H$8,))</f>
+        <v>2.3277842710800099E-2</v>
+      </c>
+      <c r="J16" s="8">
+        <f t="shared" ref="J16" si="7">INDEX(J13:J15,MATCH(MIN($H$6:$H$8),$H$6:$H$8,))</f>
+        <v>0.16359244531214631</v>
+      </c>
+      <c r="K16" s="8">
+        <f t="shared" ref="K16" si="8">INDEX(K13:K15,MATCH(MIN($H$6:$H$8),$H$6:$H$8,))</f>
+        <v>0.40446562933350261</v>
+      </c>
+      <c r="L16" s="8">
+        <f t="shared" ref="L16" si="9">INDEX(L13:L15,MATCH(MIN($H$6:$H$8),$H$6:$H$8,))</f>
+        <v>0.30843764873477414</v>
+      </c>
+      <c r="M16" s="8">
+        <f t="shared" ref="M16" si="10">INDEX(M13:M15,MATCH(MIN($H$6:$H$8),$H$6:$H$8,))</f>
+        <v>0.55537163119372068</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:Q97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3039,7 +3502,7 @@
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -3048,10 +3511,28 @@
         <v>6.8045076777486696E-2</v>
       </c>
       <c r="D2" s="11"/>
+      <c r="F2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
@@ -3059,30 +3540,36 @@
       <c r="C3" s="4">
         <v>3.66122367439949E-2</v>
       </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
+        <v>2</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
     </row>
     <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" s="7">
         <f>INDEX(B10:B999,MATCH(MIN($H$10:$H$999),$H$10:$H$999,))</f>
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="C8" s="7">
         <f>INDEX(C10:C999,MATCH(MIN($H$10:$H$999),$H$10:$H$999,))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
         <f t="shared" ref="D8:G8" si="0">INDEX(D10:D999,MATCH(MIN($H$10:$H$999),$H$10:$H$999,))</f>
@@ -3098,69 +3585,69 @@
       </c>
       <c r="G8" s="15">
         <f t="shared" si="0"/>
-        <v>2.7662037037037034E-3</v>
+        <v>4.8611111111111104E-4</v>
       </c>
       <c r="H8" s="7">
         <f>INDEX(H10:H999,MATCH(MIN($H$10:$H$999),$H$10:$H$999,))</f>
-        <v>6.3051596382763295E-2</v>
+        <v>6.2168842591083698E-2</v>
       </c>
       <c r="I8" s="7">
         <f>INDEX(I10:I999,MATCH(MIN($H$10:$H$999),$H$10:$H$999,))</f>
-        <v>6.3105998880626901E-2</v>
+        <v>6.2168842591083698E-2</v>
       </c>
       <c r="J8" s="8">
         <f>INDEX(J10:J999,MATCH(MIN($H$10:$H$999),$H$10:$H$999,))</f>
-        <v>0.9266151111703127</v>
+        <v>0.91364203753316653</v>
       </c>
       <c r="K8" s="8">
         <f>INDEX(K10:K999,MATCH(MIN($H$10:$H$999),$H$10:$H$999,))</f>
-        <v>0.96260849319456598</v>
+        <v>0.95584624157505926</v>
       </c>
       <c r="L8" s="8">
         <f t="shared" ref="L8:M8" si="1">INDEX(L10:L999,MATCH(MIN($H$10:$H$999),$H$10:$H$999,))</f>
-        <v>1.7221454352445416</v>
+        <v>1.698034540358438</v>
       </c>
       <c r="M8" s="8">
         <f t="shared" si="1"/>
-        <v>1.3123053894747752</v>
+        <v>1.3030865436947916</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -6487,21 +6974,563 @@
       </c>
       <c r="O84" s="14"/>
     </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>1</v>
+      </c>
+      <c r="B86" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C86" s="1">
+        <v>1</v>
+      </c>
+      <c r="D86" s="1">
+        <v>1</v>
+      </c>
+      <c r="E86" s="1">
+        <v>3</v>
+      </c>
+      <c r="F86" s="1">
+        <v>2</v>
+      </c>
+      <c r="G86" s="12">
+        <v>4.5138888888888892E-4</v>
+      </c>
+      <c r="H86" s="9">
+        <v>6.7500044202746801E-2</v>
+      </c>
+      <c r="I86" s="9">
+        <v>6.7500044202746801E-2</v>
+      </c>
+      <c r="J86" s="10">
+        <f t="shared" ref="J86:J97" si="18">H86/$C$2</f>
+        <v>0.99199012477387305</v>
+      </c>
+      <c r="K86" s="10">
+        <f t="shared" ref="K86:K97" si="19">SQRT(J86)</f>
+        <v>0.99598701034394677</v>
+      </c>
+      <c r="L86" s="10">
+        <f t="shared" ref="L86:L97" si="20">H86/$C$3</f>
+        <v>1.8436471028724593</v>
+      </c>
+      <c r="M86" s="10">
+        <f t="shared" ref="M86:M97" si="21">SQRT(L86)</f>
+        <v>1.3578096710778205</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>2</v>
+      </c>
+      <c r="B87" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C87" s="1">
+        <v>1</v>
+      </c>
+      <c r="D87" s="1">
+        <v>1</v>
+      </c>
+      <c r="E87" s="1">
+        <v>4</v>
+      </c>
+      <c r="F87" s="1">
+        <v>2</v>
+      </c>
+      <c r="G87" s="12">
+        <v>5.9027777777777778E-4</v>
+      </c>
+      <c r="H87" s="9">
+        <v>6.7918771331659994E-2</v>
+      </c>
+      <c r="I87" s="9">
+        <v>6.7918771331659994E-2</v>
+      </c>
+      <c r="J87" s="10">
+        <f t="shared" si="18"/>
+        <v>0.99814379743828152</v>
+      </c>
+      <c r="K87" s="10">
+        <f t="shared" si="19"/>
+        <v>0.9990714676329624</v>
+      </c>
+      <c r="L87" s="10">
+        <f t="shared" si="20"/>
+        <v>1.8550839110587789</v>
+      </c>
+      <c r="M87" s="10">
+        <f t="shared" si="21"/>
+        <v>1.3620146515580436</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>3</v>
+      </c>
+      <c r="B88" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C88" s="1">
+        <v>1</v>
+      </c>
+      <c r="D88" s="1">
+        <v>1</v>
+      </c>
+      <c r="E88" s="1">
+        <v>5</v>
+      </c>
+      <c r="F88" s="1">
+        <v>2</v>
+      </c>
+      <c r="G88" s="12">
+        <v>7.9861111111111105E-4</v>
+      </c>
+      <c r="H88" s="9">
+        <v>6.8083444955795394E-2</v>
+      </c>
+      <c r="I88" s="9">
+        <v>6.8083444955795394E-2</v>
+      </c>
+      <c r="J88" s="10">
+        <f t="shared" si="18"/>
+        <v>1.0005638641342733</v>
+      </c>
+      <c r="K88" s="10">
+        <f t="shared" si="19"/>
+        <v>1.0002818923354924</v>
+      </c>
+      <c r="L88" s="10">
+        <f t="shared" si="20"/>
+        <v>1.859581686632745</v>
+      </c>
+      <c r="M88" s="10">
+        <f t="shared" si="21"/>
+        <v>1.3636647999536928</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>4</v>
+      </c>
+      <c r="B89" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C89" s="1">
+        <v>1</v>
+      </c>
+      <c r="D89" s="1">
+        <v>1</v>
+      </c>
+      <c r="E89" s="1">
+        <v>3</v>
+      </c>
+      <c r="F89" s="1">
+        <v>3</v>
+      </c>
+      <c r="G89" s="12">
+        <v>4.6296296296296293E-4</v>
+      </c>
+      <c r="H89" s="9">
+        <v>6.5411776622398499E-2</v>
+      </c>
+      <c r="I89" s="9">
+        <v>6.5411776622398499E-2</v>
+      </c>
+      <c r="J89" s="10">
+        <f t="shared" si="18"/>
+        <v>0.96130065127710385</v>
+      </c>
+      <c r="K89" s="10">
+        <f t="shared" si="19"/>
+        <v>0.98045940827609168</v>
+      </c>
+      <c r="L89" s="10">
+        <f t="shared" si="20"/>
+        <v>1.7866096813417789</v>
+      </c>
+      <c r="M89" s="10">
+        <f t="shared" si="21"/>
+        <v>1.3366411939416571</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C90" s="1">
+        <v>1</v>
+      </c>
+      <c r="D90" s="1">
+        <v>1</v>
+      </c>
+      <c r="E90" s="1">
+        <v>4</v>
+      </c>
+      <c r="F90" s="1">
+        <v>3</v>
+      </c>
+      <c r="G90" s="12">
+        <v>6.134259259259259E-4</v>
+      </c>
+      <c r="H90" s="9">
+        <v>6.6921324651419797E-2</v>
+      </c>
+      <c r="I90" s="9">
+        <v>6.6921324651419797E-2</v>
+      </c>
+      <c r="J90" s="10">
+        <f t="shared" si="18"/>
+        <v>0.98348518101108673</v>
+      </c>
+      <c r="K90" s="10">
+        <f t="shared" si="19"/>
+        <v>0.99170821364506545</v>
+      </c>
+      <c r="L90" s="10">
+        <f t="shared" si="20"/>
+        <v>1.8278403780505479</v>
+      </c>
+      <c r="M90" s="10">
+        <f t="shared" si="21"/>
+        <v>1.3519764709678004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>6</v>
+      </c>
+      <c r="B91" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C91" s="1">
+        <v>1</v>
+      </c>
+      <c r="D91" s="1">
+        <v>1</v>
+      </c>
+      <c r="E91" s="1">
+        <v>5</v>
+      </c>
+      <c r="F91" s="1">
+        <v>3</v>
+      </c>
+      <c r="G91" s="12">
+        <v>8.2175925925925917E-4</v>
+      </c>
+      <c r="H91" s="9">
+        <v>6.7462115717038501E-2</v>
+      </c>
+      <c r="I91" s="9">
+        <v>6.7462115717038501E-2</v>
+      </c>
+      <c r="J91" s="10">
+        <f t="shared" si="18"/>
+        <v>0.99143272242377611</v>
+      </c>
+      <c r="K91" s="10">
+        <f t="shared" si="19"/>
+        <v>0.9957071469180967</v>
+      </c>
+      <c r="L91" s="10">
+        <f t="shared" si="20"/>
+        <v>1.8426111518057844</v>
+      </c>
+      <c r="M91" s="10">
+        <f t="shared" si="21"/>
+        <v>1.3574281387262401</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>7</v>
+      </c>
+      <c r="B92" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C92" s="1">
+        <v>1</v>
+      </c>
+      <c r="D92" s="1">
+        <v>1</v>
+      </c>
+      <c r="E92" s="1">
+        <v>3</v>
+      </c>
+      <c r="F92" s="1">
+        <v>4</v>
+      </c>
+      <c r="G92" s="12">
+        <v>4.7453703703703704E-4</v>
+      </c>
+      <c r="H92" s="9">
+        <v>6.36514097612291E-2</v>
+      </c>
+      <c r="I92" s="9">
+        <v>6.36514097612291E-2</v>
+      </c>
+      <c r="J92" s="10">
+        <f t="shared" si="18"/>
+        <v>0.93543005277773039</v>
+      </c>
+      <c r="K92" s="10">
+        <f t="shared" si="19"/>
+        <v>0.9671763297236603</v>
+      </c>
+      <c r="L92" s="10">
+        <f t="shared" si="20"/>
+        <v>1.7385283015157258</v>
+      </c>
+      <c r="M92" s="10">
+        <f t="shared" si="21"/>
+        <v>1.318532631949519</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>8</v>
+      </c>
+      <c r="B93" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C93" s="1">
+        <v>1</v>
+      </c>
+      <c r="D93" s="1">
+        <v>1</v>
+      </c>
+      <c r="E93" s="1">
+        <v>4</v>
+      </c>
+      <c r="F93" s="1">
+        <v>4</v>
+      </c>
+      <c r="G93" s="12">
+        <v>6.134259259259259E-4</v>
+      </c>
+      <c r="H93" s="9">
+        <v>6.5798647346116401E-2</v>
+      </c>
+      <c r="I93" s="9">
+        <v>6.5798647346116401E-2</v>
+      </c>
+      <c r="J93" s="10">
+        <f t="shared" si="18"/>
+        <v>0.96698615773898955</v>
+      </c>
+      <c r="K93" s="10">
+        <f t="shared" si="19"/>
+        <v>0.98335454325435923</v>
+      </c>
+      <c r="L93" s="10">
+        <f t="shared" si="20"/>
+        <v>1.7971763868512793</v>
+      </c>
+      <c r="M93" s="10">
+        <f t="shared" si="21"/>
+        <v>1.340588075007114</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>9</v>
+      </c>
+      <c r="B94" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C94" s="1">
+        <v>1</v>
+      </c>
+      <c r="D94" s="1">
+        <v>1</v>
+      </c>
+      <c r="E94" s="1">
+        <v>5</v>
+      </c>
+      <c r="F94" s="1">
+        <v>4</v>
+      </c>
+      <c r="G94" s="12">
+        <v>8.6805555555555551E-4</v>
+      </c>
+      <c r="H94" s="9">
+        <v>6.6692549305377005E-2</v>
+      </c>
+      <c r="I94" s="9">
+        <v>6.6692549305377005E-2</v>
+      </c>
+      <c r="J94" s="10">
+        <f t="shared" si="18"/>
+        <v>0.98012306641180558</v>
+      </c>
+      <c r="K94" s="10">
+        <f t="shared" si="19"/>
+        <v>0.9900116496343897</v>
+      </c>
+      <c r="L94" s="10">
+        <f t="shared" si="20"/>
+        <v>1.8215917746766959</v>
+      </c>
+      <c r="M94" s="10">
+        <f t="shared" si="21"/>
+        <v>1.3496635783322806</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>10</v>
+      </c>
+      <c r="B95" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C95" s="1">
+        <v>1</v>
+      </c>
+      <c r="D95" s="1">
+        <v>1</v>
+      </c>
+      <c r="E95" s="1">
+        <v>3</v>
+      </c>
+      <c r="F95" s="1">
+        <v>5</v>
+      </c>
+      <c r="G95" s="12">
+        <v>4.8611111111111104E-4</v>
+      </c>
+      <c r="H95" s="9">
+        <v>6.2168842591083698E-2</v>
+      </c>
+      <c r="I95" s="9">
+        <v>6.2168842591083698E-2</v>
+      </c>
+      <c r="J95" s="10">
+        <f t="shared" si="18"/>
+        <v>0.91364203753316653</v>
+      </c>
+      <c r="K95" s="10">
+        <f t="shared" si="19"/>
+        <v>0.95584624157505926</v>
+      </c>
+      <c r="L95" s="10">
+        <f t="shared" si="20"/>
+        <v>1.698034540358438</v>
+      </c>
+      <c r="M95" s="10">
+        <f t="shared" si="21"/>
+        <v>1.3030865436947916</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>11</v>
+      </c>
+      <c r="B96" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C96" s="1">
+        <v>1</v>
+      </c>
+      <c r="D96" s="1">
+        <v>1</v>
+      </c>
+      <c r="E96" s="1">
+        <v>4</v>
+      </c>
+      <c r="F96" s="1">
+        <v>5</v>
+      </c>
+      <c r="G96" s="12">
+        <v>6.4814814814814813E-4</v>
+      </c>
+      <c r="H96" s="9">
+        <v>6.4664745513575497E-2</v>
+      </c>
+      <c r="I96" s="9">
+        <v>6.4664745513575497E-2</v>
+      </c>
+      <c r="J96" s="10">
+        <f t="shared" si="18"/>
+        <v>0.95032217723899148</v>
+      </c>
+      <c r="K96" s="10">
+        <f t="shared" si="19"/>
+        <v>0.97484469390718409</v>
+      </c>
+      <c r="L96" s="10">
+        <f t="shared" si="20"/>
+        <v>1.7662058170805897</v>
+      </c>
+      <c r="M96" s="10">
+        <f t="shared" si="21"/>
+        <v>1.3289867633203085</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>12</v>
+      </c>
+      <c r="B97" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C97" s="1">
+        <v>1</v>
+      </c>
+      <c r="D97" s="1">
+        <v>1</v>
+      </c>
+      <c r="E97" s="1">
+        <v>5</v>
+      </c>
+      <c r="F97" s="1">
+        <v>5</v>
+      </c>
+      <c r="G97" s="12">
+        <v>9.8379629629629642E-4</v>
+      </c>
+      <c r="H97" s="9">
+        <v>6.5836764666532196E-2</v>
+      </c>
+      <c r="I97" s="9">
+        <v>6.5836764666532196E-2</v>
+      </c>
+      <c r="J97" s="10">
+        <f t="shared" si="18"/>
+        <v>0.96754633523045508</v>
+      </c>
+      <c r="K97" s="10">
+        <f t="shared" si="19"/>
+        <v>0.98363933188463704</v>
+      </c>
+      <c r="L97" s="10">
+        <f t="shared" si="20"/>
+        <v>1.7982174956117827</v>
+      </c>
+      <c r="M97" s="10">
+        <f t="shared" si="21"/>
+        <v>1.3409763217938573</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="C6:H6"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M122"/>
+  <dimension ref="A2:M97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+      <selection activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6514,7 +7543,7 @@
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -6526,7 +7555,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
@@ -6537,27 +7566,27 @@
     </row>
     <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
+        <v>2</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" s="7">
         <f t="shared" ref="B8:M8" si="0">INDEX(B10:B999,MATCH(MIN($H$10:$H$999),$H$10:$H$999,))</f>
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="C8" s="7">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
         <f t="shared" si="0"/>
@@ -6573,69 +7602,69 @@
       </c>
       <c r="G8" s="15">
         <f t="shared" si="0"/>
-        <v>4.2245370370370371E-3</v>
+        <v>6.134259259259259E-4</v>
       </c>
       <c r="H8" s="7">
         <f t="shared" si="0"/>
-        <v>0.102146951987133</v>
+        <v>0.10089096536641599</v>
       </c>
       <c r="I8" s="7">
         <f t="shared" si="0"/>
-        <v>0.10256086676143</v>
+        <v>0.10089096536641599</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" si="0"/>
-        <v>0.68531546411188426</v>
+        <v>0.6768889076934077</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" si="0"/>
-        <v>0.82783782476514345</v>
+        <v>0.82273258577341379</v>
       </c>
       <c r="L8" s="8">
         <f t="shared" si="0"/>
-        <v>1.2920956709762923</v>
+        <v>1.2762082182049457</v>
       </c>
       <c r="M8" s="8">
         <f t="shared" si="0"/>
-        <v>1.1367038624797103</v>
+        <v>1.1296938603909228</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -9891,651 +10920,543 @@
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>1</v>
+      </c>
+      <c r="B86" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C86" s="1">
+        <v>1</v>
+      </c>
+      <c r="D86" s="1">
+        <v>1</v>
+      </c>
+      <c r="E86" s="1">
+        <v>3</v>
+      </c>
+      <c r="F86" s="1">
+        <v>2</v>
+      </c>
+      <c r="G86" s="12">
+        <v>4.5138888888888892E-4</v>
+      </c>
+      <c r="H86" s="9">
+        <v>0.11369049497073801</v>
+      </c>
+      <c r="I86" s="9">
+        <v>0.11369049497073801</v>
+      </c>
       <c r="J86" s="10">
-        <f t="shared" ref="J86:J103" si="17">H86/$C$2</f>
-        <v>0</v>
+        <f t="shared" ref="J86:J97" si="17">H86/$C$2</f>
+        <v>0.76276240074002044</v>
       </c>
       <c r="K86" s="10">
-        <f t="shared" ref="K86:K103" si="18">SQRT(J86)</f>
-        <v>0</v>
+        <f t="shared" ref="K86:K97" si="18">SQRT(J86)</f>
+        <v>0.87336269713104897</v>
       </c>
       <c r="L86" s="10">
-        <f t="shared" ref="L86:L103" si="19">H86/$C$2</f>
-        <v>0</v>
+        <f t="shared" ref="L86:L97" si="19">H86/$C$3</f>
+        <v>1.4381143394405613</v>
       </c>
       <c r="M86" s="10">
-        <f t="shared" ref="M86:M103" si="20">SQRT(L86)</f>
-        <v>0</v>
+        <f t="shared" ref="M86:M97" si="20">SQRT(L86)</f>
+        <v>1.1992140507184534</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>2</v>
+      </c>
+      <c r="B87" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C87" s="1">
+        <v>1</v>
+      </c>
+      <c r="D87" s="1">
+        <v>1</v>
+      </c>
+      <c r="E87" s="1">
+        <v>4</v>
+      </c>
+      <c r="F87" s="1">
+        <v>2</v>
+      </c>
+      <c r="G87" s="12">
+        <v>5.6712962962962956E-4</v>
+      </c>
+      <c r="H87" s="9">
+        <v>0.109321410756786</v>
+      </c>
+      <c r="I87" s="9">
+        <v>0.109321410756786</v>
+      </c>
       <c r="J87" s="10">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>0.73344972015993226</v>
       </c>
       <c r="K87" s="10">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.8564167911478221</v>
       </c>
       <c r="L87" s="10">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1.3828481304234841</v>
       </c>
       <c r="M87" s="10">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1.1759456324267223</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>3</v>
+      </c>
+      <c r="B88" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C88" s="1">
+        <v>1</v>
+      </c>
+      <c r="D88" s="1">
+        <v>1</v>
+      </c>
+      <c r="E88" s="1">
+        <v>5</v>
+      </c>
+      <c r="F88" s="1">
+        <v>2</v>
+      </c>
+      <c r="G88" s="12">
+        <v>7.175925925925927E-4</v>
+      </c>
+      <c r="H88" s="9">
+        <v>0.10799221822088</v>
+      </c>
+      <c r="I88" s="9">
+        <v>0.10799221822088</v>
+      </c>
       <c r="J88" s="10">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>0.72453201696940317</v>
       </c>
       <c r="K88" s="10">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.85119446483715056</v>
       </c>
       <c r="L88" s="10">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1.3660346681700584</v>
       </c>
       <c r="M88" s="10">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1.1687748577763206</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>4</v>
+      </c>
+      <c r="B89" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C89" s="1">
+        <v>1</v>
+      </c>
+      <c r="D89" s="1">
+        <v>1</v>
+      </c>
+      <c r="E89" s="1">
+        <v>3</v>
+      </c>
+      <c r="F89" s="1">
+        <v>3</v>
+      </c>
+      <c r="G89" s="12">
+        <v>4.8611111111111104E-4</v>
+      </c>
+      <c r="H89" s="9">
+        <v>0.109093555272788</v>
+      </c>
+      <c r="I89" s="9">
+        <v>0.109093555272788</v>
+      </c>
       <c r="J89" s="10">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>0.73192101192411341</v>
       </c>
       <c r="K89" s="10">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.85552382311897857</v>
       </c>
       <c r="L89" s="10">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1.3799658996886979</v>
       </c>
       <c r="M89" s="10">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1.1747194983010616</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C90" s="1">
+        <v>1</v>
+      </c>
+      <c r="D90" s="1">
+        <v>1</v>
+      </c>
+      <c r="E90" s="1">
+        <v>4</v>
+      </c>
+      <c r="F90" s="1">
+        <v>3</v>
+      </c>
+      <c r="G90" s="12">
+        <v>5.7870370370370378E-4</v>
+      </c>
+      <c r="H90" s="9">
+        <v>0.106733349282345</v>
+      </c>
+      <c r="I90" s="9">
+        <v>0.106733349282345</v>
+      </c>
       <c r="J90" s="10">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>0.71608612275440187</v>
       </c>
       <c r="K90" s="10">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.84621872039940238</v>
       </c>
       <c r="L90" s="10">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1.3501107558636736</v>
       </c>
       <c r="M90" s="10">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1.1619426646197624</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>6</v>
+      </c>
+      <c r="B91" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C91" s="1">
+        <v>1</v>
+      </c>
+      <c r="D91" s="1">
+        <v>1</v>
+      </c>
+      <c r="E91" s="1">
+        <v>5</v>
+      </c>
+      <c r="F91" s="1">
+        <v>3</v>
+      </c>
+      <c r="G91" s="12">
+        <v>7.407407407407407E-4</v>
+      </c>
+      <c r="H91" s="9">
+        <v>0.10620811156573801</v>
+      </c>
+      <c r="I91" s="9">
+        <v>0.10620811156573801</v>
+      </c>
       <c r="J91" s="10">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>0.71256224345577213</v>
       </c>
       <c r="K91" s="10">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.84413401984268599</v>
       </c>
       <c r="L91" s="10">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1.3434668240902923</v>
       </c>
       <c r="M91" s="10">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1.1590801629267462</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>7</v>
+      </c>
+      <c r="B92" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C92" s="1">
+        <v>1</v>
+      </c>
+      <c r="D92" s="1">
+        <v>1</v>
+      </c>
+      <c r="E92" s="1">
+        <v>3</v>
+      </c>
+      <c r="F92" s="1">
+        <v>4</v>
+      </c>
+      <c r="G92" s="12">
+        <v>4.8611111111111104E-4</v>
+      </c>
+      <c r="H92" s="9">
+        <v>0.10506510602268</v>
+      </c>
+      <c r="I92" s="9">
+        <v>0.10506510602268</v>
+      </c>
       <c r="J92" s="10">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>0.70489368987698375</v>
       </c>
       <c r="K92" s="10">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.8395794720435843</v>
       </c>
       <c r="L92" s="10">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1.3290085119688186</v>
       </c>
       <c r="M92" s="10">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1.1528263147451219</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>8</v>
+      </c>
+      <c r="B93" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C93" s="1">
+        <v>1</v>
+      </c>
+      <c r="D93" s="1">
+        <v>1</v>
+      </c>
+      <c r="E93" s="1">
+        <v>4</v>
+      </c>
+      <c r="F93" s="1">
+        <v>4</v>
+      </c>
+      <c r="G93" s="12">
+        <v>6.018518518518519E-4</v>
+      </c>
+      <c r="H93" s="9">
+        <v>0.10379154649117001</v>
+      </c>
+      <c r="I93" s="9">
+        <v>0.10379154649117001</v>
+      </c>
       <c r="J93" s="10">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>0.69634923481070987</v>
       </c>
       <c r="K93" s="10">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.8344754249291646</v>
       </c>
       <c r="L93" s="10">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1.312898772760918</v>
       </c>
       <c r="M93" s="10">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1.1458179492227019</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>9</v>
+      </c>
+      <c r="B94" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C94" s="1">
+        <v>1</v>
+      </c>
+      <c r="D94" s="1">
+        <v>1</v>
+      </c>
+      <c r="E94" s="1">
+        <v>5</v>
+      </c>
+      <c r="F94" s="1">
+        <v>4</v>
+      </c>
+      <c r="G94" s="12">
+        <v>7.5231481481481471E-4</v>
+      </c>
+      <c r="H94" s="9">
+        <v>0.10403646820967601</v>
+      </c>
+      <c r="I94" s="9">
+        <v>0.10403646820967601</v>
+      </c>
       <c r="J94" s="10">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>0.69799244234577329</v>
       </c>
       <c r="K94" s="10">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.83545941992760686</v>
       </c>
       <c r="L94" s="10">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1.3159968807910973</v>
       </c>
       <c r="M94" s="10">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1.1471690724523118</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>10</v>
+      </c>
+      <c r="B95" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C95" s="1">
+        <v>1</v>
+      </c>
+      <c r="D95" s="1">
+        <v>1</v>
+      </c>
+      <c r="E95" s="1">
+        <v>3</v>
+      </c>
+      <c r="F95" s="1">
+        <v>5</v>
+      </c>
+      <c r="G95" s="12">
+        <v>4.8611111111111104E-4</v>
+      </c>
+      <c r="H95" s="9">
+        <v>0.101672366678687</v>
+      </c>
+      <c r="I95" s="9">
+        <v>0.101672366678687</v>
+      </c>
       <c r="J95" s="10">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>0.682131417553556</v>
       </c>
       <c r="K95" s="10">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.82591247572218929</v>
       </c>
       <c r="L95" s="10">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1.2860924607911339</v>
       </c>
       <c r="M95" s="10">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1.1340601663012126</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>11</v>
+      </c>
+      <c r="B96" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C96" s="1">
+        <v>1</v>
+      </c>
+      <c r="D96" s="1">
+        <v>1</v>
+      </c>
+      <c r="E96" s="1">
+        <v>4</v>
+      </c>
+      <c r="F96" s="1">
+        <v>5</v>
+      </c>
+      <c r="G96" s="12">
+        <v>6.134259259259259E-4</v>
+      </c>
+      <c r="H96" s="9">
+        <v>0.10089096536641599</v>
+      </c>
+      <c r="I96" s="9">
+        <v>0.10089096536641599</v>
+      </c>
       <c r="J96" s="10">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>0.6768889076934077</v>
       </c>
       <c r="K96" s="10">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.82273258577341379</v>
       </c>
       <c r="L96" s="10">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1.2762082182049457</v>
       </c>
       <c r="M96" s="10">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="10:13" x14ac:dyDescent="0.25">
+        <v>1.1296938603909228</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>12</v>
+      </c>
+      <c r="B97" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C97" s="1">
+        <v>1</v>
+      </c>
+      <c r="D97" s="1">
+        <v>1</v>
+      </c>
+      <c r="E97" s="1">
+        <v>5</v>
+      </c>
+      <c r="F97" s="1">
+        <v>5</v>
+      </c>
+      <c r="G97" s="12">
+        <v>7.8703703703703705E-4</v>
+      </c>
+      <c r="H97" s="9">
+        <v>0.101666266038916</v>
+      </c>
+      <c r="I97" s="9">
+        <v>0.101666266038916</v>
+      </c>
       <c r="J97" s="10">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>0.68209048767072833</v>
       </c>
       <c r="K97" s="10">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.82588769676677487</v>
       </c>
       <c r="L97" s="10">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1.286015291476877</v>
       </c>
       <c r="M97" s="10">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J98" s="10">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="K98" s="10">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="L98" s="10">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="M98" s="10">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J99" s="10">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="K99" s="10">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="L99" s="10">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="M99" s="10">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J100" s="10">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="K100" s="10">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="L100" s="10">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="M100" s="10">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J101" s="10">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="K101" s="10">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="L101" s="10">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="M101" s="10">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J102" s="10">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="K102" s="10">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="L102" s="10">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="M102" s="10">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J103" s="10">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="K103" s="10">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="L103" s="10">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="M103" s="10">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J105" s="10">
-        <f t="shared" ref="J105:J122" si="21">H105/$C$2</f>
-        <v>0</v>
-      </c>
-      <c r="K105" s="10">
-        <f t="shared" ref="K105:K122" si="22">SQRT(J105)</f>
-        <v>0</v>
-      </c>
-      <c r="L105" s="10">
-        <f t="shared" ref="L105:L122" si="23">H105/$C$2</f>
-        <v>0</v>
-      </c>
-      <c r="M105" s="10">
-        <f t="shared" ref="M105:M122" si="24">SQRT(L105)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J106" s="10">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="K106" s="10">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="L106" s="10">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="M106" s="10">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J107" s="10">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="K107" s="10">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="L107" s="10">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="M107" s="10">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J108" s="10">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="K108" s="10">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="L108" s="10">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="M108" s="10">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J109" s="10">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="K109" s="10">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="L109" s="10">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="M109" s="10">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J110" s="10">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="K110" s="10">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="L110" s="10">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="M110" s="10">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J111" s="10">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="K111" s="10">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="L111" s="10">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="M111" s="10">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J112" s="10">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="K112" s="10">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="L112" s="10">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="M112" s="10">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J113" s="10">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="K113" s="10">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="L113" s="10">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="M113" s="10">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J114" s="10">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="K114" s="10">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="L114" s="10">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="M114" s="10">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J115" s="10">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="K115" s="10">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="L115" s="10">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="M115" s="10">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J116" s="10">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="K116" s="10">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="L116" s="10">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="M116" s="10">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J117" s="10">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="K117" s="10">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="L117" s="10">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="M117" s="10">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J118" s="10">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="K118" s="10">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="L118" s="10">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="M118" s="10">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J119" s="10">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="K119" s="10">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="L119" s="10">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="M119" s="10">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J120" s="10">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="K120" s="10">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="L120" s="10">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="M120" s="10">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J121" s="10">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="K121" s="10">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="L121" s="10">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="M121" s="10">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J122" s="10">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="K122" s="10">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="L122" s="10">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="M122" s="10">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1.134026142325157</v>
       </c>
     </row>
   </sheetData>
@@ -10547,12 +11468,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10565,28 +11486,28 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
       <c r="I2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
+        <v>31</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
@@ -11084,12 +12005,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q122"/>
+  <dimension ref="A2:Q141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11101,7 +12022,7 @@
   <sheetData>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -11113,7 +12034,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
@@ -11124,16 +12045,16 @@
     </row>
     <row r="6" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
+        <v>1</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
     </row>
@@ -11189,40 +12110,40 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="F9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -16503,6 +17424,833 @@
       <c r="N122" s="14"/>
       <c r="O122" s="20"/>
       <c r="P122" s="20"/>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
+        <v>1</v>
+      </c>
+      <c r="B124" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C124" s="1">
+        <v>1</v>
+      </c>
+      <c r="D124" s="1">
+        <v>1</v>
+      </c>
+      <c r="E124" s="1">
+        <v>3</v>
+      </c>
+      <c r="F124" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G124" s="16">
+        <v>1.6724537037037034E-2</v>
+      </c>
+      <c r="H124" s="22">
+        <v>4.7863431189076801E-2</v>
+      </c>
+      <c r="I124" s="22">
+        <v>4.7863431189076801E-2</v>
+      </c>
+      <c r="J124" s="10">
+        <f t="shared" ref="J124:J141" si="26">H124/$C$2</f>
+        <v>0.70340770347859805</v>
+      </c>
+      <c r="K124" s="10">
+        <f t="shared" ref="K124:K141" si="27">SQRT(J124)</f>
+        <v>0.83869404640703038</v>
+      </c>
+      <c r="L124" s="10">
+        <f t="shared" ref="L124:L141" si="28">H124/$C$3</f>
+        <v>1.3073069401291717</v>
+      </c>
+      <c r="M124" s="10">
+        <f t="shared" ref="M124:M141" si="29">SQRT(L124)</f>
+        <v>1.1433752402991644</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
+        <f t="shared" ref="A125:A141" si="30">A124+1</f>
+        <v>2</v>
+      </c>
+      <c r="B125" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C125" s="1">
+        <v>1</v>
+      </c>
+      <c r="D125" s="1">
+        <v>1</v>
+      </c>
+      <c r="E125" s="1">
+        <v>4</v>
+      </c>
+      <c r="F125" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G125" s="16">
+        <v>1.6724537037037034E-2</v>
+      </c>
+      <c r="H125" s="22">
+        <v>4.6954205352269997E-2</v>
+      </c>
+      <c r="I125" s="22">
+        <v>4.6954205352269997E-2</v>
+      </c>
+      <c r="J125" s="10">
+        <f t="shared" si="26"/>
+        <v>0.69004559295030732</v>
+      </c>
+      <c r="K125" s="10">
+        <f t="shared" si="27"/>
+        <v>0.83068982956956161</v>
+      </c>
+      <c r="L125" s="10">
+        <f t="shared" si="28"/>
+        <v>1.2824730070601702</v>
+      </c>
+      <c r="M125" s="10">
+        <f t="shared" si="29"/>
+        <v>1.1324632475538312</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="B126" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C126" s="1">
+        <v>1</v>
+      </c>
+      <c r="D126" s="1">
+        <v>1</v>
+      </c>
+      <c r="E126" s="1">
+        <v>5</v>
+      </c>
+      <c r="F126" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G126" s="16">
+        <v>1.6620370370370372E-2</v>
+      </c>
+      <c r="H126" s="22">
+        <v>4.7510808843210198E-2</v>
+      </c>
+      <c r="I126" s="22">
+        <v>4.7510808843210198E-2</v>
+      </c>
+      <c r="J126" s="10">
+        <f t="shared" si="26"/>
+        <v>0.69822551598515592</v>
+      </c>
+      <c r="K126" s="10">
+        <f t="shared" si="27"/>
+        <v>0.83559889659163378</v>
+      </c>
+      <c r="L126" s="10">
+        <f t="shared" si="28"/>
+        <v>1.2976756698975205</v>
+      </c>
+      <c r="M126" s="10">
+        <f t="shared" si="29"/>
+        <v>1.1391556829062131</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
+        <f t="shared" si="30"/>
+        <v>4</v>
+      </c>
+      <c r="B127" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C127" s="1">
+        <v>1</v>
+      </c>
+      <c r="D127" s="1">
+        <v>1</v>
+      </c>
+      <c r="E127" s="1">
+        <v>3</v>
+      </c>
+      <c r="F127" s="1">
+        <v>1</v>
+      </c>
+      <c r="G127" s="16">
+        <v>1.6481481481481482E-2</v>
+      </c>
+      <c r="H127" s="22">
+        <v>4.5087224317363998E-2</v>
+      </c>
+      <c r="I127" s="22">
+        <v>4.5087224317363998E-2</v>
+      </c>
+      <c r="J127" s="10">
+        <f t="shared" si="26"/>
+        <v>0.66260817758797064</v>
+      </c>
+      <c r="K127" s="10">
+        <f t="shared" si="27"/>
+        <v>0.81400748005652301</v>
+      </c>
+      <c r="L127" s="10">
+        <f t="shared" si="28"/>
+        <v>1.2314796452516428</v>
+      </c>
+      <c r="M127" s="10">
+        <f t="shared" si="29"/>
+        <v>1.1097205257413429</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
+        <f t="shared" si="30"/>
+        <v>5</v>
+      </c>
+      <c r="B128" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C128" s="1">
+        <v>1</v>
+      </c>
+      <c r="D128" s="1">
+        <v>1</v>
+      </c>
+      <c r="E128" s="1">
+        <v>4</v>
+      </c>
+      <c r="F128" s="1">
+        <v>1</v>
+      </c>
+      <c r="G128" s="16">
+        <v>1.667824074074074E-2</v>
+      </c>
+      <c r="H128" s="22">
+        <v>4.7431063477605798E-2</v>
+      </c>
+      <c r="I128" s="22">
+        <v>4.7431063477605798E-2</v>
+      </c>
+      <c r="J128" s="10">
+        <f t="shared" si="26"/>
+        <v>0.69705356689815323</v>
+      </c>
+      <c r="K128" s="10">
+        <f t="shared" si="27"/>
+        <v>0.8348973391370661</v>
+      </c>
+      <c r="L128" s="10">
+        <f t="shared" si="28"/>
+        <v>1.295497562994028</v>
+      </c>
+      <c r="M128" s="10">
+        <f t="shared" si="29"/>
+        <v>1.1381992633076283</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
+        <f t="shared" si="30"/>
+        <v>6</v>
+      </c>
+      <c r="B129" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C129" s="1">
+        <v>1</v>
+      </c>
+      <c r="D129" s="1">
+        <v>1</v>
+      </c>
+      <c r="E129" s="1">
+        <v>5</v>
+      </c>
+      <c r="F129" s="1">
+        <v>1</v>
+      </c>
+      <c r="G129" s="16">
+        <v>1.6747685185185185E-2</v>
+      </c>
+      <c r="H129" s="22">
+        <v>4.8412408350951897E-2</v>
+      </c>
+      <c r="I129" s="22">
+        <v>4.8412408350951897E-2</v>
+      </c>
+      <c r="J129" s="10">
+        <f t="shared" si="26"/>
+        <v>0.71147554891097664</v>
+      </c>
+      <c r="K129" s="10">
+        <f t="shared" si="27"/>
+        <v>0.84349010006696379</v>
+      </c>
+      <c r="L129" s="10">
+        <f t="shared" si="28"/>
+        <v>1.3223013029623887</v>
+      </c>
+      <c r="M129" s="10">
+        <f t="shared" si="29"/>
+        <v>1.1499136067385187</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
+        <f t="shared" si="30"/>
+        <v>7</v>
+      </c>
+      <c r="B130" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C130" s="1">
+        <v>1</v>
+      </c>
+      <c r="D130" s="1">
+        <v>1</v>
+      </c>
+      <c r="E130" s="1">
+        <v>3</v>
+      </c>
+      <c r="F130" s="1">
+        <v>3</v>
+      </c>
+      <c r="G130" s="16">
+        <v>1.6608796296296299E-2</v>
+      </c>
+      <c r="H130" s="22">
+        <v>4.0543246985550403E-2</v>
+      </c>
+      <c r="I130" s="22">
+        <v>4.0543246985550403E-2</v>
+      </c>
+      <c r="J130" s="10">
+        <f t="shared" si="26"/>
+        <v>0.59582924886880995</v>
+      </c>
+      <c r="K130" s="10">
+        <f t="shared" si="27"/>
+        <v>0.77189976607640576</v>
+      </c>
+      <c r="L130" s="10">
+        <f t="shared" si="28"/>
+        <v>1.1073687540327692</v>
+      </c>
+      <c r="M130" s="10">
+        <f t="shared" si="29"/>
+        <v>1.0523159003040718</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
+        <f t="shared" si="30"/>
+        <v>8</v>
+      </c>
+      <c r="B131" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C131" s="1">
+        <v>1</v>
+      </c>
+      <c r="D131" s="1">
+        <v>1</v>
+      </c>
+      <c r="E131" s="1">
+        <v>4</v>
+      </c>
+      <c r="F131" s="1">
+        <v>3</v>
+      </c>
+      <c r="G131" s="16">
+        <v>1.6585648148148148E-2</v>
+      </c>
+      <c r="H131" s="22">
+        <v>4.4456378703757501E-2</v>
+      </c>
+      <c r="I131" s="22">
+        <v>4.4456378703757501E-2</v>
+      </c>
+      <c r="J131" s="10">
+        <f t="shared" si="26"/>
+        <v>0.65333718189684342</v>
+      </c>
+      <c r="K131" s="10">
+        <f t="shared" si="27"/>
+        <v>0.80829275754323282</v>
+      </c>
+      <c r="L131" s="10">
+        <f t="shared" si="28"/>
+        <v>1.2142491870849488</v>
+      </c>
+      <c r="M131" s="10">
+        <f t="shared" si="29"/>
+        <v>1.1019297559667534</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
+        <f t="shared" si="30"/>
+        <v>9</v>
+      </c>
+      <c r="B132" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C132" s="1">
+        <v>1</v>
+      </c>
+      <c r="D132" s="1">
+        <v>1</v>
+      </c>
+      <c r="E132" s="1">
+        <v>5</v>
+      </c>
+      <c r="F132" s="1">
+        <v>3</v>
+      </c>
+      <c r="G132" s="16">
+        <v>1.681712962962963E-2</v>
+      </c>
+      <c r="H132" s="22">
+        <v>4.8714584436359697E-2</v>
+      </c>
+      <c r="I132" s="22">
+        <v>4.8714584436359697E-2</v>
+      </c>
+      <c r="J132" s="10">
+        <f t="shared" si="26"/>
+        <v>0.71591637107943329</v>
+      </c>
+      <c r="K132" s="10">
+        <f t="shared" si="27"/>
+        <v>0.84611841433657098</v>
+      </c>
+      <c r="L132" s="10">
+        <f t="shared" si="28"/>
+        <v>1.3305547207341768</v>
+      </c>
+      <c r="M132" s="10">
+        <f t="shared" si="29"/>
+        <v>1.153496736334428</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
+        <f t="shared" si="30"/>
+        <v>10</v>
+      </c>
+      <c r="B133" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C133" s="1">
+        <v>1</v>
+      </c>
+      <c r="D133" s="1">
+        <v>1</v>
+      </c>
+      <c r="E133" s="1">
+        <v>3</v>
+      </c>
+      <c r="F133" s="1">
+        <v>5</v>
+      </c>
+      <c r="G133" s="16">
+        <v>1.6689814814814817E-2</v>
+      </c>
+      <c r="H133" s="22">
+        <v>4.0438170980686798E-2</v>
+      </c>
+      <c r="I133" s="22">
+        <v>4.0438170980686798E-2</v>
+      </c>
+      <c r="J133" s="10">
+        <f t="shared" si="26"/>
+        <v>0.59428503715152126</v>
+      </c>
+      <c r="K133" s="10">
+        <f t="shared" si="27"/>
+        <v>0.77089885014281945</v>
+      </c>
+      <c r="L133" s="10">
+        <f t="shared" si="28"/>
+        <v>1.1044987844759149</v>
+      </c>
+      <c r="M133" s="10">
+        <f t="shared" si="29"/>
+        <v>1.0509513711280436</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
+        <f t="shared" si="30"/>
+        <v>11</v>
+      </c>
+      <c r="B134" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C134" s="1">
+        <v>1</v>
+      </c>
+      <c r="D134" s="1">
+        <v>1</v>
+      </c>
+      <c r="E134" s="1">
+        <v>4</v>
+      </c>
+      <c r="F134" s="1">
+        <v>5</v>
+      </c>
+      <c r="G134" s="16">
+        <v>1.6550925925925924E-2</v>
+      </c>
+      <c r="H134" s="22">
+        <v>4.33591684747354E-2</v>
+      </c>
+      <c r="I134" s="22">
+        <v>4.33591684747354E-2</v>
+      </c>
+      <c r="J134" s="10">
+        <f t="shared" si="26"/>
+        <v>0.63721242635266095</v>
+      </c>
+      <c r="K134" s="10">
+        <f t="shared" si="27"/>
+        <v>0.79825586521657388</v>
+      </c>
+      <c r="L134" s="10">
+        <f t="shared" si="28"/>
+        <v>1.184280785080609</v>
+      </c>
+      <c r="M134" s="10">
+        <f t="shared" si="29"/>
+        <v>1.0882466563608679</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
+        <f t="shared" si="30"/>
+        <v>12</v>
+      </c>
+      <c r="B135" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C135" s="1">
+        <v>1</v>
+      </c>
+      <c r="D135" s="1">
+        <v>1</v>
+      </c>
+      <c r="E135" s="1">
+        <v>5</v>
+      </c>
+      <c r="F135" s="1">
+        <v>5</v>
+      </c>
+      <c r="G135" s="16">
+        <v>1.7013888888888887E-2</v>
+      </c>
+      <c r="H135" s="22">
+        <v>4.7420359578748697E-2</v>
+      </c>
+      <c r="I135" s="22">
+        <v>4.7420359578748697E-2</v>
+      </c>
+      <c r="J135" s="10">
+        <f t="shared" si="26"/>
+        <v>0.69689626089801304</v>
+      </c>
+      <c r="K135" s="10">
+        <f t="shared" si="27"/>
+        <v>0.8348031270293691</v>
+      </c>
+      <c r="L135" s="10">
+        <f t="shared" si="28"/>
+        <v>1.295205204487446</v>
+      </c>
+      <c r="M135" s="10">
+        <f t="shared" si="29"/>
+        <v>1.1380708257781877</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
+        <f t="shared" si="30"/>
+        <v>13</v>
+      </c>
+      <c r="B136" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C136" s="1">
+        <v>1</v>
+      </c>
+      <c r="D136" s="1">
+        <v>1</v>
+      </c>
+      <c r="E136" s="1">
+        <v>3</v>
+      </c>
+      <c r="F136" s="1">
+        <v>7</v>
+      </c>
+      <c r="G136" s="16">
+        <v>1.6747685185185185E-2</v>
+      </c>
+      <c r="H136" s="22">
+        <v>3.9423272384302703E-2</v>
+      </c>
+      <c r="I136" s="22">
+        <v>3.9423272384302703E-2</v>
+      </c>
+      <c r="J136" s="10">
+        <f t="shared" si="26"/>
+        <v>0.57936994491490135</v>
+      </c>
+      <c r="K136" s="10">
+        <f t="shared" si="27"/>
+        <v>0.76116354675910569</v>
+      </c>
+      <c r="L136" s="10">
+        <f t="shared" si="28"/>
+        <v>1.0767785825259328</v>
+      </c>
+      <c r="M136" s="10">
+        <f t="shared" si="29"/>
+        <v>1.0376794218475824</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
+        <f t="shared" si="30"/>
+        <v>14</v>
+      </c>
+      <c r="B137" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C137" s="1">
+        <v>1</v>
+      </c>
+      <c r="D137" s="1">
+        <v>1</v>
+      </c>
+      <c r="E137" s="1">
+        <v>4</v>
+      </c>
+      <c r="F137" s="1">
+        <v>7</v>
+      </c>
+      <c r="G137" s="16">
+        <v>1.6608796296296299E-2</v>
+      </c>
+      <c r="H137" s="22">
+        <v>4.1111162614532203E-2</v>
+      </c>
+      <c r="I137" s="22">
+        <v>4.1111162614532203E-2</v>
+      </c>
+      <c r="J137" s="10">
+        <f t="shared" si="26"/>
+        <v>0.6041754166722344</v>
+      </c>
+      <c r="K137" s="10">
+        <f t="shared" si="27"/>
+        <v>0.7772872163314114</v>
+      </c>
+      <c r="L137" s="10">
+        <f t="shared" si="28"/>
+        <v>1.122880388379309</v>
+      </c>
+      <c r="M137" s="10">
+        <f t="shared" si="29"/>
+        <v>1.059660506190218</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
+        <f t="shared" si="30"/>
+        <v>15</v>
+      </c>
+      <c r="B138" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C138" s="1">
+        <v>1</v>
+      </c>
+      <c r="D138" s="1">
+        <v>1</v>
+      </c>
+      <c r="E138" s="1">
+        <v>5</v>
+      </c>
+      <c r="F138" s="1">
+        <v>7</v>
+      </c>
+      <c r="G138" s="16">
+        <v>1.6770833333333332E-2</v>
+      </c>
+      <c r="H138" s="22">
+        <v>4.4043914610881203E-2</v>
+      </c>
+      <c r="I138" s="22">
+        <v>4.4043914610881203E-2</v>
+      </c>
+      <c r="J138" s="10">
+        <f t="shared" si="26"/>
+        <v>0.64727555168919315</v>
+      </c>
+      <c r="K138" s="10">
+        <f t="shared" si="27"/>
+        <v>0.80453436948908108</v>
+      </c>
+      <c r="L138" s="10">
+        <f t="shared" si="28"/>
+        <v>1.2029834429087494</v>
+      </c>
+      <c r="M138" s="10">
+        <f t="shared" si="29"/>
+        <v>1.0968060188149722</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
+        <f t="shared" si="30"/>
+        <v>16</v>
+      </c>
+      <c r="B139" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C139" s="1">
+        <v>1</v>
+      </c>
+      <c r="D139" s="1">
+        <v>1</v>
+      </c>
+      <c r="E139" s="1">
+        <v>3</v>
+      </c>
+      <c r="F139" s="1">
+        <v>9</v>
+      </c>
+      <c r="G139" s="16">
+        <v>1.6423611111111111E-2</v>
+      </c>
+      <c r="H139" s="22">
+        <v>3.9187267534176798E-2</v>
+      </c>
+      <c r="I139" s="22">
+        <v>3.9187267534176798E-2</v>
+      </c>
+      <c r="J139" s="10">
+        <f t="shared" si="26"/>
+        <v>0.57590158450878914</v>
+      </c>
+      <c r="K139" s="10">
+        <f t="shared" si="27"/>
+        <v>0.75888179877289796</v>
+      </c>
+      <c r="L139" s="10">
+        <f t="shared" si="28"/>
+        <v>1.0703325177368261</v>
+      </c>
+      <c r="M139" s="10">
+        <f t="shared" si="29"/>
+        <v>1.0345687593083537</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
+        <f t="shared" si="30"/>
+        <v>17</v>
+      </c>
+      <c r="B140" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C140" s="1">
+        <v>1</v>
+      </c>
+      <c r="D140" s="1">
+        <v>1</v>
+      </c>
+      <c r="E140" s="1">
+        <v>4</v>
+      </c>
+      <c r="F140" s="1">
+        <v>9</v>
+      </c>
+      <c r="G140" s="16">
+        <v>1.6400462962962964E-2</v>
+      </c>
+      <c r="H140" s="22">
+        <v>4.0510798320681399E-2</v>
+      </c>
+      <c r="I140" s="22">
+        <v>4.0510798320681399E-2</v>
+      </c>
+      <c r="J140" s="10">
+        <f t="shared" si="26"/>
+        <v>0.59535237873498514</v>
+      </c>
+      <c r="K140" s="10">
+        <f t="shared" si="27"/>
+        <v>0.77159081042673461</v>
+      </c>
+      <c r="L140" s="10">
+        <f t="shared" si="28"/>
+        <v>1.1064824748060753</v>
+      </c>
+      <c r="M140" s="10">
+        <f t="shared" si="29"/>
+        <v>1.051894707091007</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
+        <f t="shared" si="30"/>
+        <v>18</v>
+      </c>
+      <c r="B141" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C141" s="1">
+        <v>1</v>
+      </c>
+      <c r="D141" s="1">
+        <v>1</v>
+      </c>
+      <c r="E141" s="1">
+        <v>5</v>
+      </c>
+      <c r="F141" s="1">
+        <v>9</v>
+      </c>
+      <c r="G141" s="16">
+        <v>1.6724537037037034E-2</v>
+      </c>
+      <c r="H141" s="22">
+        <v>4.3089629812270103E-2</v>
+      </c>
+      <c r="I141" s="22">
+        <v>4.3089629812270103E-2</v>
+      </c>
+      <c r="J141" s="10">
+        <f t="shared" si="26"/>
+        <v>0.63325124833317381</v>
+      </c>
+      <c r="K141" s="10">
+        <f t="shared" si="27"/>
+        <v>0.79577085164837102</v>
+      </c>
+      <c r="L141" s="10">
+        <f t="shared" si="28"/>
+        <v>1.176918802136218</v>
+      </c>
+      <c r="M141" s="10">
+        <f t="shared" si="29"/>
+        <v>1.0848588858170531</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -16513,12 +18261,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q122"/>
+  <dimension ref="A2:Q141"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="H124" sqref="H124:H141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16530,7 +18278,7 @@
   <sheetData>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -16542,7 +18290,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
@@ -16554,16 +18302,16 @@
     </row>
     <row r="6" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
+        <v>1</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
     </row>
@@ -16619,40 +18367,40 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="F9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -21631,6 +23379,833 @@
         <v>0.73326903133333998</v>
       </c>
       <c r="Q122" s="20"/>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
+        <v>1</v>
+      </c>
+      <c r="B124" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C124" s="1">
+        <v>1</v>
+      </c>
+      <c r="D124" s="1">
+        <v>1</v>
+      </c>
+      <c r="E124" s="1">
+        <v>3</v>
+      </c>
+      <c r="F124" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G124" s="16">
+        <v>1.6736111111111111E-2</v>
+      </c>
+      <c r="H124" s="22">
+        <v>6.5249846318376797E-2</v>
+      </c>
+      <c r="I124" s="22">
+        <v>6.5249846318376797E-2</v>
+      </c>
+      <c r="J124" s="10">
+        <f t="shared" ref="J124:J141" si="25">H124/$C$2</f>
+        <v>0.43776860535731199</v>
+      </c>
+      <c r="K124" s="10">
+        <f t="shared" ref="K124:K141" si="26">SQRT(J124)</f>
+        <v>0.66164084317499017</v>
+      </c>
+      <c r="L124" s="10">
+        <f t="shared" ref="L124:L141" si="27">H124/$C$3</f>
+        <v>0.82537013899801004</v>
+      </c>
+      <c r="M124" s="10">
+        <f t="shared" ref="M124:M141" si="28">SQRT(L124)</f>
+        <v>0.9084988381929886</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
+        <f t="shared" ref="A125:A141" si="29">A124+1</f>
+        <v>2</v>
+      </c>
+      <c r="B125" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C125" s="1">
+        <v>1</v>
+      </c>
+      <c r="D125" s="1">
+        <v>1</v>
+      </c>
+      <c r="E125" s="1">
+        <v>4</v>
+      </c>
+      <c r="F125" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G125" s="16">
+        <v>1.650462962962963E-2</v>
+      </c>
+      <c r="H125" s="22">
+        <v>6.0732160168901102E-2</v>
+      </c>
+      <c r="I125" s="22">
+        <v>6.0732160168901102E-2</v>
+      </c>
+      <c r="J125" s="10">
+        <f t="shared" si="25"/>
+        <v>0.40745893756977231</v>
+      </c>
+      <c r="K125" s="10">
+        <f t="shared" si="26"/>
+        <v>0.6383251033523375</v>
+      </c>
+      <c r="L125" s="10">
+        <f t="shared" si="27"/>
+        <v>0.76822420754327214</v>
+      </c>
+      <c r="M125" s="10">
+        <f t="shared" si="28"/>
+        <v>0.8764840030161829</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
+        <f t="shared" si="29"/>
+        <v>3</v>
+      </c>
+      <c r="B126" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C126" s="1">
+        <v>1</v>
+      </c>
+      <c r="D126" s="1">
+        <v>1</v>
+      </c>
+      <c r="E126" s="1">
+        <v>5</v>
+      </c>
+      <c r="F126" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G126" s="16">
+        <v>1.5752314814814813E-2</v>
+      </c>
+      <c r="H126" s="22">
+        <v>5.8547096406669899E-2</v>
+      </c>
+      <c r="I126" s="22">
+        <v>5.8547096406669899E-2</v>
+      </c>
+      <c r="J126" s="10">
+        <f t="shared" si="25"/>
+        <v>0.39279909743556873</v>
+      </c>
+      <c r="K126" s="10">
+        <f t="shared" si="26"/>
+        <v>0.62673686458957301</v>
+      </c>
+      <c r="L126" s="10">
+        <f t="shared" si="27"/>
+        <v>0.74058450441887791</v>
+      </c>
+      <c r="M126" s="10">
+        <f t="shared" si="28"/>
+        <v>0.86057219593644663</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
+        <f t="shared" si="29"/>
+        <v>4</v>
+      </c>
+      <c r="B127" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C127" s="1">
+        <v>1</v>
+      </c>
+      <c r="D127" s="1">
+        <v>1</v>
+      </c>
+      <c r="E127" s="1">
+        <v>3</v>
+      </c>
+      <c r="F127" s="1">
+        <v>1</v>
+      </c>
+      <c r="G127" s="16">
+        <v>1.6493055555555556E-2</v>
+      </c>
+      <c r="H127" s="22">
+        <v>6.5168553266552007E-2</v>
+      </c>
+      <c r="I127" s="22">
+        <v>6.5168553266552007E-2</v>
+      </c>
+      <c r="J127" s="10">
+        <f t="shared" si="25"/>
+        <v>0.43722320107009061</v>
+      </c>
+      <c r="K127" s="10">
+        <f t="shared" si="26"/>
+        <v>0.66122855433661565</v>
+      </c>
+      <c r="L127" s="10">
+        <f t="shared" si="27"/>
+        <v>0.82434183224680613</v>
+      </c>
+      <c r="M127" s="10">
+        <f t="shared" si="28"/>
+        <v>0.90793272451586748</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="B128" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C128" s="1">
+        <v>1</v>
+      </c>
+      <c r="D128" s="1">
+        <v>1</v>
+      </c>
+      <c r="E128" s="1">
+        <v>4</v>
+      </c>
+      <c r="F128" s="1">
+        <v>1</v>
+      </c>
+      <c r="G128" s="16">
+        <v>1.6770833333333332E-2</v>
+      </c>
+      <c r="H128" s="22">
+        <v>6.1080098378550399E-2</v>
+      </c>
+      <c r="I128" s="22">
+        <v>6.1080098378550399E-2</v>
+      </c>
+      <c r="J128" s="10">
+        <f t="shared" si="25"/>
+        <v>0.40979329440557982</v>
+      </c>
+      <c r="K128" s="10">
+        <f t="shared" si="26"/>
+        <v>0.64015099344262505</v>
+      </c>
+      <c r="L128" s="10">
+        <f t="shared" si="27"/>
+        <v>0.77262541037614496</v>
+      </c>
+      <c r="M128" s="10">
+        <f t="shared" si="28"/>
+        <v>0.87899113213737545</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
+        <f t="shared" si="29"/>
+        <v>6</v>
+      </c>
+      <c r="B129" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C129" s="1">
+        <v>1</v>
+      </c>
+      <c r="D129" s="1">
+        <v>1</v>
+      </c>
+      <c r="E129" s="1">
+        <v>5</v>
+      </c>
+      <c r="F129" s="1">
+        <v>1</v>
+      </c>
+      <c r="G129" s="16">
+        <v>1.6875000000000001E-2</v>
+      </c>
+      <c r="H129" s="22">
+        <v>5.8892644561860198E-2</v>
+      </c>
+      <c r="I129" s="22">
+        <v>5.8892644561860198E-2</v>
+      </c>
+      <c r="J129" s="10">
+        <f t="shared" si="25"/>
+        <v>0.39511741912545206</v>
+      </c>
+      <c r="K129" s="10">
+        <f t="shared" si="26"/>
+        <v>0.62858366119829434</v>
+      </c>
+      <c r="L129" s="10">
+        <f t="shared" si="27"/>
+        <v>0.74495547454328725</v>
+      </c>
+      <c r="M129" s="10">
+        <f t="shared" si="28"/>
+        <v>0.86310803179166817</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
+        <f t="shared" si="29"/>
+        <v>7</v>
+      </c>
+      <c r="B130" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C130" s="1">
+        <v>1</v>
+      </c>
+      <c r="D130" s="1">
+        <v>1</v>
+      </c>
+      <c r="E130" s="1">
+        <v>3</v>
+      </c>
+      <c r="F130" s="1">
+        <v>3</v>
+      </c>
+      <c r="G130" s="16">
+        <v>1.6608796296296299E-2</v>
+      </c>
+      <c r="H130" s="22">
+        <v>6.3261584453695299E-2</v>
+      </c>
+      <c r="I130" s="22">
+        <v>6.3261584453695299E-2</v>
+      </c>
+      <c r="J130" s="10">
+        <f t="shared" si="25"/>
+        <v>0.42442913143212035</v>
+      </c>
+      <c r="K130" s="10">
+        <f t="shared" si="26"/>
+        <v>0.6514822571890353</v>
+      </c>
+      <c r="L130" s="10">
+        <f t="shared" si="27"/>
+        <v>0.8002198579749813</v>
+      </c>
+      <c r="M130" s="10">
+        <f t="shared" si="28"/>
+        <v>0.89455008690122062</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
+        <f t="shared" si="29"/>
+        <v>8</v>
+      </c>
+      <c r="B131" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C131" s="1">
+        <v>1</v>
+      </c>
+      <c r="D131" s="1">
+        <v>1</v>
+      </c>
+      <c r="E131" s="1">
+        <v>4</v>
+      </c>
+      <c r="F131" s="1">
+        <v>3</v>
+      </c>
+      <c r="G131" s="16">
+        <v>1.650462962962963E-2</v>
+      </c>
+      <c r="H131" s="22">
+        <v>6.0739164737642799E-2</v>
+      </c>
+      <c r="I131" s="22">
+        <v>6.0739164737642799E-2</v>
+      </c>
+      <c r="J131" s="10">
+        <f t="shared" si="25"/>
+        <v>0.40750593201439089</v>
+      </c>
+      <c r="K131" s="10">
+        <f t="shared" si="26"/>
+        <v>0.63836191303553735</v>
+      </c>
+      <c r="L131" s="10">
+        <f t="shared" si="27"/>
+        <v>0.76831281099909865</v>
+      </c>
+      <c r="M131" s="10">
+        <f t="shared" si="28"/>
+        <v>0.87653454638085926</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
+        <f t="shared" si="29"/>
+        <v>9</v>
+      </c>
+      <c r="B132" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C132" s="1">
+        <v>1</v>
+      </c>
+      <c r="D132" s="1">
+        <v>1</v>
+      </c>
+      <c r="E132" s="1">
+        <v>5</v>
+      </c>
+      <c r="F132" s="1">
+        <v>3</v>
+      </c>
+      <c r="G132" s="16">
+        <v>1.6921296296296299E-2</v>
+      </c>
+      <c r="H132" s="22">
+        <v>5.9247261121054801E-2</v>
+      </c>
+      <c r="I132" s="22">
+        <v>5.9247261121054801E-2</v>
+      </c>
+      <c r="J132" s="10">
+        <f t="shared" si="25"/>
+        <v>0.39749658176436098</v>
+      </c>
+      <c r="K132" s="10">
+        <f t="shared" si="26"/>
+        <v>0.63047329980290279</v>
+      </c>
+      <c r="L132" s="10">
+        <f t="shared" si="27"/>
+        <v>0.74944115436121828</v>
+      </c>
+      <c r="M132" s="10">
+        <f t="shared" si="28"/>
+        <v>0.86570269397826083</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
+        <f t="shared" si="29"/>
+        <v>10</v>
+      </c>
+      <c r="B133" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C133" s="1">
+        <v>1</v>
+      </c>
+      <c r="D133" s="1">
+        <v>1</v>
+      </c>
+      <c r="E133" s="1">
+        <v>3</v>
+      </c>
+      <c r="F133" s="1">
+        <v>5</v>
+      </c>
+      <c r="G133" s="16">
+        <v>1.6493055555555556E-2</v>
+      </c>
+      <c r="H133" s="22">
+        <v>6.3277364054972501E-2</v>
+      </c>
+      <c r="I133" s="22">
+        <v>6.3277364054972501E-2</v>
+      </c>
+      <c r="J133" s="10">
+        <f t="shared" si="25"/>
+        <v>0.42453499856337013</v>
+      </c>
+      <c r="K133" s="10">
+        <f t="shared" si="26"/>
+        <v>0.65156350309342081</v>
+      </c>
+      <c r="L133" s="10">
+        <f t="shared" si="27"/>
+        <v>0.80041946015696885</v>
+      </c>
+      <c r="M133" s="10">
+        <f t="shared" si="28"/>
+        <v>0.89466164562753492</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
+        <f t="shared" si="29"/>
+        <v>11</v>
+      </c>
+      <c r="B134" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C134" s="1">
+        <v>1</v>
+      </c>
+      <c r="D134" s="1">
+        <v>1</v>
+      </c>
+      <c r="E134" s="1">
+        <v>4</v>
+      </c>
+      <c r="F134" s="1">
+        <v>5</v>
+      </c>
+      <c r="G134" s="16">
+        <v>1.6770833333333332E-2</v>
+      </c>
+      <c r="H134" s="22">
+        <v>6.0049631207134503E-2</v>
+      </c>
+      <c r="I134" s="22">
+        <v>6.0049631207134503E-2</v>
+      </c>
+      <c r="J134" s="10">
+        <f t="shared" si="25"/>
+        <v>0.40287977350169712</v>
+      </c>
+      <c r="K134" s="10">
+        <f t="shared" si="26"/>
+        <v>0.63472810990352169</v>
+      </c>
+      <c r="L134" s="10">
+        <f t="shared" si="27"/>
+        <v>0.75959063894765066</v>
+      </c>
+      <c r="M134" s="10">
+        <f t="shared" si="28"/>
+        <v>0.8715449724183203</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
+        <f t="shared" si="29"/>
+        <v>12</v>
+      </c>
+      <c r="B135" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C135" s="1">
+        <v>1</v>
+      </c>
+      <c r="D135" s="1">
+        <v>1</v>
+      </c>
+      <c r="E135" s="1">
+        <v>5</v>
+      </c>
+      <c r="F135" s="1">
+        <v>5</v>
+      </c>
+      <c r="G135" s="16">
+        <v>1.6875000000000001E-2</v>
+      </c>
+      <c r="H135" s="22">
+        <v>5.9228398462346003E-2</v>
+      </c>
+      <c r="I135" s="22">
+        <v>5.9228398462346003E-2</v>
+      </c>
+      <c r="J135" s="10">
+        <f t="shared" si="25"/>
+        <v>0.39737003005179466</v>
+      </c>
+      <c r="K135" s="10">
+        <f t="shared" si="26"/>
+        <v>0.63037292934563316</v>
+      </c>
+      <c r="L135" s="10">
+        <f t="shared" si="27"/>
+        <v>0.74920255341242237</v>
+      </c>
+      <c r="M135" s="10">
+        <f t="shared" si="28"/>
+        <v>0.8655648753342654</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
+        <f t="shared" si="29"/>
+        <v>13</v>
+      </c>
+      <c r="B136" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C136" s="1">
+        <v>1</v>
+      </c>
+      <c r="D136" s="1">
+        <v>1</v>
+      </c>
+      <c r="E136" s="1">
+        <v>3</v>
+      </c>
+      <c r="F136" s="1">
+        <v>7</v>
+      </c>
+      <c r="G136" s="16">
+        <v>1.6597222222222222E-2</v>
+      </c>
+      <c r="H136" s="22">
+        <v>6.3547259057163505E-2</v>
+      </c>
+      <c r="I136" s="22">
+        <v>6.3547259057163505E-2</v>
+      </c>
+      <c r="J136" s="10">
+        <f t="shared" si="25"/>
+        <v>0.42634575468569968</v>
+      </c>
+      <c r="K136" s="10">
+        <f t="shared" si="26"/>
+        <v>0.65295157147042671</v>
+      </c>
+      <c r="L136" s="10">
+        <f t="shared" si="27"/>
+        <v>0.8038334647568619</v>
+      </c>
+      <c r="M136" s="10">
+        <f t="shared" si="28"/>
+        <v>0.89656760188892726</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
+        <f t="shared" si="29"/>
+        <v>14</v>
+      </c>
+      <c r="B137" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C137" s="1">
+        <v>1</v>
+      </c>
+      <c r="D137" s="1">
+        <v>1</v>
+      </c>
+      <c r="E137" s="1">
+        <v>4</v>
+      </c>
+      <c r="F137" s="1">
+        <v>7</v>
+      </c>
+      <c r="G137" s="16">
+        <v>1.6608796296296299E-2</v>
+      </c>
+      <c r="H137" s="22">
+        <v>6.0053111665882598E-2</v>
+      </c>
+      <c r="I137" s="22">
+        <v>6.0053111665882598E-2</v>
+      </c>
+      <c r="J137" s="10">
+        <f t="shared" si="25"/>
+        <v>0.40290312429343267</v>
+      </c>
+      <c r="K137" s="10">
+        <f t="shared" si="26"/>
+        <v>0.63474650396314325</v>
+      </c>
+      <c r="L137" s="10">
+        <f t="shared" si="27"/>
+        <v>0.75963466459495532</v>
+      </c>
+      <c r="M137" s="10">
+        <f t="shared" si="28"/>
+        <v>0.87157022929592731</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
+        <f t="shared" si="29"/>
+        <v>15</v>
+      </c>
+      <c r="B138" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C138" s="1">
+        <v>1</v>
+      </c>
+      <c r="D138" s="1">
+        <v>1</v>
+      </c>
+      <c r="E138" s="1">
+        <v>5</v>
+      </c>
+      <c r="F138" s="1">
+        <v>7</v>
+      </c>
+      <c r="G138" s="16">
+        <v>1.6782407407407409E-2</v>
+      </c>
+      <c r="H138" s="22">
+        <v>5.9089582033520403E-2</v>
+      </c>
+      <c r="I138" s="22">
+        <v>5.9089582033520403E-2</v>
+      </c>
+      <c r="J138" s="10">
+        <f t="shared" si="25"/>
+        <v>0.39643869491651862</v>
+      </c>
+      <c r="K138" s="10">
+        <f t="shared" si="26"/>
+        <v>0.62963377841132273</v>
+      </c>
+      <c r="L138" s="10">
+        <f t="shared" si="27"/>
+        <v>0.74744661157317349</v>
+      </c>
+      <c r="M138" s="10">
+        <f t="shared" si="28"/>
+        <v>0.8645499474137821</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
+        <f t="shared" si="29"/>
+        <v>16</v>
+      </c>
+      <c r="B139" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C139" s="1">
+        <v>1</v>
+      </c>
+      <c r="D139" s="1">
+        <v>1</v>
+      </c>
+      <c r="E139" s="1">
+        <v>3</v>
+      </c>
+      <c r="F139" s="1">
+        <v>9</v>
+      </c>
+      <c r="G139" s="16">
+        <v>1.650462962962963E-2</v>
+      </c>
+      <c r="H139" s="22">
+        <v>6.39375662723764E-2</v>
+      </c>
+      <c r="I139" s="22">
+        <v>6.39375662723764E-2</v>
+      </c>
+      <c r="J139" s="10">
+        <f t="shared" si="25"/>
+        <v>0.42896436997608578</v>
+      </c>
+      <c r="K139" s="10">
+        <f t="shared" si="26"/>
+        <v>0.6549537159037162</v>
+      </c>
+      <c r="L139" s="10">
+        <f t="shared" si="27"/>
+        <v>0.80877060926598954</v>
+      </c>
+      <c r="M139" s="10">
+        <f t="shared" si="28"/>
+        <v>0.89931674579426657</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
+        <f t="shared" si="29"/>
+        <v>17</v>
+      </c>
+      <c r="B140" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C140" s="1">
+        <v>1</v>
+      </c>
+      <c r="D140" s="1">
+        <v>1</v>
+      </c>
+      <c r="E140" s="1">
+        <v>4</v>
+      </c>
+      <c r="F140" s="1">
+        <v>9</v>
+      </c>
+      <c r="G140" s="16">
+        <v>1.5520833333333333E-2</v>
+      </c>
+      <c r="H140" s="22">
+        <v>6.0457295171669499E-2</v>
+      </c>
+      <c r="I140" s="22">
+        <v>6.0457295171669499E-2</v>
+      </c>
+      <c r="J140" s="10">
+        <f t="shared" si="25"/>
+        <v>0.40561483718810237</v>
+      </c>
+      <c r="K140" s="10">
+        <f t="shared" si="26"/>
+        <v>0.63687898158763445</v>
+      </c>
+      <c r="L140" s="10">
+        <f t="shared" si="27"/>
+        <v>0.76474733558461983</v>
+      </c>
+      <c r="M140" s="10">
+        <f t="shared" si="28"/>
+        <v>0.87449833366600527</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
+        <f t="shared" si="29"/>
+        <v>18</v>
+      </c>
+      <c r="B141" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C141" s="1">
+        <v>1</v>
+      </c>
+      <c r="D141" s="1">
+        <v>1</v>
+      </c>
+      <c r="E141" s="1">
+        <v>5</v>
+      </c>
+      <c r="F141" s="1">
+        <v>9</v>
+      </c>
+      <c r="G141" s="16">
+        <v>1.6828703703703703E-2</v>
+      </c>
+      <c r="H141" s="22">
+        <v>5.9743701624968497E-2</v>
+      </c>
+      <c r="I141" s="22">
+        <v>5.9743701624968497E-2</v>
+      </c>
+      <c r="J141" s="10">
+        <f t="shared" si="25"/>
+        <v>0.4008272573031319</v>
+      </c>
+      <c r="K141" s="10">
+        <f t="shared" si="26"/>
+        <v>0.6331091985614582</v>
+      </c>
+      <c r="L141" s="10">
+        <f t="shared" si="27"/>
+        <v>0.75572081923154133</v>
+      </c>
+      <c r="M141" s="10">
+        <f t="shared" si="28"/>
+        <v>0.86932204575263206</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -21641,12 +24216,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21660,7 +24235,7 @@
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -21672,7 +24247,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
@@ -21684,14 +24259,14 @@
     </row>
     <row r="6" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
+        <v>3</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
     </row>
@@ -21701,7 +24276,7 @@
     </row>
     <row r="8" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" s="7">
-        <f t="shared" ref="B8:R8" si="0">INDEX(B10:B999,MATCH(MIN($M$10:$M$999),$M$10:$M$999,))</f>
+        <f t="shared" ref="B8:R8" si="0">INDEX(B11:B999,MATCH(MIN($M$11:$M$999),$M$11:$M$999,))</f>
         <v>15000</v>
       </c>
       <c r="C8" s="7">
@@ -21771,55 +24346,55 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -21836,67 +24411,68 @@
         <v>1</v>
       </c>
       <c r="E10" s="4">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="F10" s="4">
-        <v>0.1</v>
+        <v>0.95</v>
       </c>
       <c r="G10" s="4">
         <v>0.05</v>
       </c>
       <c r="H10" s="4">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I10" s="4">
         <v>0.2</v>
       </c>
       <c r="J10" s="24">
-        <v>1E-3</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="K10" s="24">
-        <v>5.0000000000000004E-6</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="L10" s="19">
-        <v>1.7372685185185185E-2</v>
+        <v>2.5798611111111109E-2</v>
       </c>
       <c r="M10" s="9">
-        <v>2.8144341469649899E-2</v>
+        <v>3.7683602836703203E-2</v>
       </c>
       <c r="N10" s="9">
-        <v>2.78497115436518E-2</v>
+        <v>3.7683602836703203E-2</v>
       </c>
       <c r="O10" s="10">
         <f>M10/$C$2</f>
-        <v>0.41361319293803339</v>
+        <v>0.5538035170410911</v>
       </c>
       <c r="P10" s="10">
         <f>SQRT(O10)</f>
-        <v>0.64312766457215431</v>
+        <v>0.74417976124125484</v>
       </c>
       <c r="Q10" s="10">
         <f>M10/$C$3</f>
-        <v>0.76871406864444314</v>
+        <v>1.0292625140659843</v>
       </c>
       <c r="R10" s="10">
         <f>SQRT(Q10)</f>
-        <v>0.87676340516951501</v>
+        <v>1.0145257582072444</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
+        <f>A10+1</f>
         <v>2</v>
       </c>
       <c r="B11" s="1">
         <v>15000</v>
       </c>
       <c r="C11" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="4">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F11" s="4">
         <v>0.1</v>
@@ -21911,39 +24487,40 @@
         <v>0.2</v>
       </c>
       <c r="J11" s="24">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-3</v>
       </c>
       <c r="K11" s="24">
-        <v>5.0000000000000001E-3</v>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="L11" s="19">
-        <v>2.7013888888888889E-2</v>
+        <v>1.7372685185185185E-2</v>
       </c>
       <c r="M11" s="9">
-        <v>2.7662726037989801E-2</v>
+        <v>2.8144341469649899E-2</v>
       </c>
       <c r="N11" s="9">
-        <v>2.7392629082610899E-2</v>
+        <v>2.78497115436518E-2</v>
       </c>
       <c r="O11" s="10">
-        <f t="shared" ref="O11:O15" si="1">M11/$C$2</f>
-        <v>0.4065353049486492</v>
+        <f>M11/$C$2</f>
+        <v>0.41361319293803339</v>
       </c>
       <c r="P11" s="10">
-        <f t="shared" ref="P11:P15" si="2">SQRT(O11)</f>
-        <v>0.63760121153323512</v>
+        <f>SQRT(O11)</f>
+        <v>0.64312766457215431</v>
       </c>
       <c r="Q11" s="10">
-        <f t="shared" ref="Q11:Q15" si="3">M11/$C$3</f>
-        <v>0.75555957510645699</v>
+        <f>M11/$C$3</f>
+        <v>0.76871406864444314</v>
       </c>
       <c r="R11" s="10">
-        <f t="shared" ref="R11:R15" si="4">SQRT(Q11)</f>
-        <v>0.86922929949838723</v>
+        <f>SQRT(Q11)</f>
+        <v>0.87676340516951501</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
+        <f t="shared" ref="A12:A16" si="1">A11+1</f>
         <v>3</v>
       </c>
       <c r="B12" s="1">
@@ -21953,19 +24530,19 @@
         <v>5</v>
       </c>
       <c r="D12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="4">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="F12" s="4">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="G12" s="4">
         <v>0.05</v>
       </c>
       <c r="H12" s="4">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I12" s="4">
         <v>0.2</v>
@@ -21974,96 +24551,98 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="K12" s="24">
-        <v>5.0000000000000004E-6</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="L12" s="19">
-        <v>1.5925925925925927E-2</v>
+        <v>2.7013888888888889E-2</v>
       </c>
       <c r="M12" s="9">
-        <v>2.69813168411367E-2</v>
+        <v>2.7662726037989801E-2</v>
       </c>
       <c r="N12" s="9">
-        <v>2.67033872622843E-2</v>
+        <v>2.7392629082610899E-2</v>
       </c>
       <c r="O12" s="10">
-        <f t="shared" si="1"/>
-        <v>0.39652121974037807</v>
+        <f t="shared" ref="O12:O16" si="2">M12/$C$2</f>
+        <v>0.4065353049486492</v>
       </c>
       <c r="P12" s="10">
-        <f t="shared" si="2"/>
-        <v>0.62969930898832827</v>
+        <f t="shared" ref="P12:P16" si="3">SQRT(O12)</f>
+        <v>0.63760121153323512</v>
       </c>
       <c r="Q12" s="10">
-        <f t="shared" si="3"/>
-        <v>0.7369480600106233</v>
+        <f t="shared" ref="Q12:Q16" si="4">M12/$C$3</f>
+        <v>0.75555957510645699</v>
       </c>
       <c r="R12" s="10">
-        <f t="shared" si="4"/>
-        <v>0.858456789833142</v>
+        <f t="shared" ref="R12:R16" si="5">SQRT(Q12)</f>
+        <v>0.86922929949838723</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B13" s="1">
         <v>15000</v>
       </c>
       <c r="C13" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="4">
         <v>50</v>
       </c>
       <c r="F13" s="4">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="G13" s="4">
         <v>0.05</v>
       </c>
       <c r="H13" s="4">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I13" s="4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="J13" s="24">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="K13" s="24">
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="L13" s="19">
-        <v>1.7824074074074076E-2</v>
+        <v>1.5925925925925927E-2</v>
       </c>
       <c r="M13" s="9">
-        <v>2.44919597545105E-2</v>
+        <v>2.69813168411367E-2</v>
       </c>
       <c r="N13" s="9">
-        <v>2.41045603907089E-2</v>
+        <v>2.67033872622843E-2</v>
       </c>
       <c r="O13" s="10">
-        <f t="shared" si="1"/>
-        <v>0.35993727855729124</v>
+        <f t="shared" si="2"/>
+        <v>0.39652121974037807</v>
       </c>
       <c r="P13" s="10">
-        <f t="shared" si="2"/>
-        <v>0.59994772985426925</v>
+        <f t="shared" si="3"/>
+        <v>0.62969930898832827</v>
       </c>
       <c r="Q13" s="10">
-        <f t="shared" si="3"/>
-        <v>0.66895557148738383</v>
+        <f t="shared" si="4"/>
+        <v>0.7369480600106233</v>
       </c>
       <c r="R13" s="10">
-        <f t="shared" si="4"/>
-        <v>0.81789704210700254</v>
+        <f t="shared" si="5"/>
+        <v>0.858456789833142</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B14" s="1">
@@ -22073,57 +24652,58 @@
         <v>7</v>
       </c>
       <c r="D14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="4">
         <v>50</v>
       </c>
       <c r="F14" s="4">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G14" s="4">
         <v>0.05</v>
       </c>
       <c r="H14" s="4">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I14" s="4">
         <v>0.1</v>
       </c>
       <c r="J14" s="24">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-4</v>
       </c>
       <c r="K14" s="24">
-        <v>5.0000000000000001E-3</v>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="L14" s="19">
-        <v>1.7662037037037035E-2</v>
+        <v>1.7824074074074076E-2</v>
       </c>
       <c r="M14" s="9">
-        <v>2.79436614668216E-2</v>
+        <v>2.44919597545105E-2</v>
       </c>
       <c r="N14" s="9">
-        <v>2.7764223050916598E-2</v>
+        <v>2.41045603907089E-2</v>
       </c>
       <c r="O14" s="10">
-        <f t="shared" si="1"/>
-        <v>0.4106639714464545</v>
+        <f t="shared" si="2"/>
+        <v>0.35993727855729124</v>
       </c>
       <c r="P14" s="10">
-        <f t="shared" si="2"/>
-        <v>0.64083068859602421</v>
+        <f t="shared" si="3"/>
+        <v>0.59994772985426925</v>
       </c>
       <c r="Q14" s="10">
-        <f t="shared" si="3"/>
-        <v>0.76323284103653921</v>
+        <f t="shared" si="4"/>
+        <v>0.66895557148738383</v>
       </c>
       <c r="R14" s="10">
-        <f t="shared" si="4"/>
-        <v>0.87363198260854624</v>
+        <f t="shared" si="5"/>
+        <v>0.81789704210700254</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B15" s="1">
@@ -22133,57 +24713,115 @@
         <v>7</v>
       </c>
       <c r="D15" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15" s="4">
         <v>50</v>
       </c>
       <c r="F15" s="4">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="G15" s="4">
         <v>0.05</v>
       </c>
       <c r="H15" s="4">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I15" s="4">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J15" s="24">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="K15" s="24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L15" s="19">
+        <v>1.7662037037037035E-2</v>
+      </c>
+      <c r="M15" s="9">
+        <v>2.79436614668216E-2</v>
+      </c>
+      <c r="N15" s="9">
+        <v>2.7764223050916598E-2</v>
+      </c>
+      <c r="O15" s="10">
+        <f t="shared" si="2"/>
+        <v>0.4106639714464545</v>
+      </c>
+      <c r="P15" s="10">
+        <f t="shared" si="3"/>
+        <v>0.64083068859602421</v>
+      </c>
+      <c r="Q15" s="10">
+        <f t="shared" si="4"/>
+        <v>0.76323284103653921</v>
+      </c>
+      <c r="R15" s="10">
+        <f t="shared" si="5"/>
+        <v>0.87363198260854624</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B16" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C16" s="1">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="4">
+        <v>50</v>
+      </c>
+      <c r="F16" s="4">
+        <v>3</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="H16" s="4">
+        <v>39</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J16" s="24">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K16" s="24">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="L15" s="19">
+      <c r="L16" s="19">
         <v>1.7349537037037038E-2</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M16" s="9">
         <v>2.65990737595291E-2</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N16" s="9">
         <v>2.64149370134165E-2</v>
       </c>
-      <c r="O15" s="10">
-        <f t="shared" si="1"/>
+      <c r="O16" s="10">
+        <f t="shared" si="2"/>
         <v>0.39090372175654059</v>
       </c>
-      <c r="P15" s="10">
-        <f t="shared" si="2"/>
+      <c r="P16" s="10">
+        <f t="shared" si="3"/>
         <v>0.62522293764427783</v>
       </c>
-      <c r="Q15" s="10">
-        <f t="shared" si="3"/>
+      <c r="Q16" s="10">
+        <f t="shared" si="4"/>
         <v>0.72650775055123751</v>
       </c>
-      <c r="R15" s="10">
-        <f t="shared" si="4"/>
+      <c r="R16" s="10">
+        <f t="shared" si="5"/>
         <v>0.85235424006174654</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O16" s="20"/>
     </row>
     <row r="17" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O17" s="20"/>
@@ -22389,12 +25027,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22409,7 +25047,7 @@
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -22421,7 +25059,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
@@ -22433,19 +25071,19 @@
     </row>
     <row r="6" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
+        <v>3</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
       <c r="N6" s="23"/>
       <c r="O6" s="23"/>
     </row>
@@ -22455,7 +25093,7 @@
     </row>
     <row r="8" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" s="7">
-        <f t="shared" ref="B8:R8" si="0">INDEX(B10:B999,MATCH(MIN($M$10:$M$999),$M$10:$M$999,))</f>
+        <f t="shared" ref="B8:R8" si="0">INDEX(B11:B999,MATCH(MIN($M$11:$M$999),$M$11:$M$999,))</f>
         <v>15000</v>
       </c>
       <c r="C8" s="7">
@@ -22525,55 +25163,55 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -22590,7 +25228,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="4">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F10" s="4">
         <v>1.1000000000000001</v>
@@ -22611,95 +25249,97 @@
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="L10" s="19">
-        <v>2.6261574074074076E-2</v>
+        <v>1.7025462962962961E-2</v>
       </c>
       <c r="M10" s="9">
-        <v>3.6495622163526698E-2</v>
+        <v>6.7540778641881405E-2</v>
       </c>
       <c r="N10" s="9">
-        <v>3.5863722099438201E-2</v>
+        <v>6.7540778641881405E-2</v>
       </c>
       <c r="O10" s="10">
         <f>M10/$C$2</f>
-        <v>0.24485326046928738</v>
+        <v>0.45313872965362229</v>
       </c>
       <c r="P10" s="10">
         <f>SQRT(O10)</f>
-        <v>0.4948264953185989</v>
+        <v>0.67315579894525335</v>
       </c>
       <c r="Q10" s="10">
         <f>M10/$C$3</f>
-        <v>0.46164701432323973</v>
+        <v>0.85434901384562012</v>
       </c>
       <c r="R10" s="10">
         <f>SQRT(Q10)</f>
-        <v>0.6794461084760437</v>
+        <v>0.9243100204182686</v>
       </c>
       <c r="T10" s="20"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
+        <f>A10+1</f>
         <v>2</v>
       </c>
       <c r="B11" s="1">
         <v>15000</v>
       </c>
       <c r="C11" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="4">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F11" s="4">
-        <v>0.95</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G11" s="4">
         <v>0.2</v>
       </c>
       <c r="H11" s="4">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I11" s="4">
         <v>0.1</v>
       </c>
       <c r="J11" s="24">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="K11" s="24">
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="L11" s="19">
-        <v>4.3530092592592599E-2</v>
+        <v>2.6261574074074076E-2</v>
       </c>
       <c r="M11" s="9">
-        <v>2.9076785505662301E-2</v>
+        <v>3.6495622163526698E-2</v>
       </c>
       <c r="N11" s="9">
-        <v>2.83858953561839E-2</v>
+        <v>3.5863722099438201E-2</v>
       </c>
       <c r="O11" s="10">
-        <f t="shared" ref="O11:O15" si="1">M11/$C$2</f>
-        <v>0.19507944550518508</v>
+        <f>M11/$C$2</f>
+        <v>0.24485326046928738</v>
       </c>
       <c r="P11" s="10">
-        <f t="shared" ref="P11:P15" si="2">SQRT(O11)</f>
-        <v>0.44167798847710882</v>
+        <f>SQRT(O11)</f>
+        <v>0.4948264953185989</v>
       </c>
       <c r="Q11" s="10">
-        <f t="shared" ref="Q11:Q15" si="3">M11/$C$3</f>
-        <v>0.36780332596223708</v>
+        <f>M11/$C$3</f>
+        <v>0.46164701432323973</v>
       </c>
       <c r="R11" s="10">
-        <f t="shared" ref="R11:R15" si="4">SQRT(Q11)</f>
-        <v>0.60646791008448009</v>
+        <f>SQRT(Q11)</f>
+        <v>0.6794461084760437</v>
       </c>
       <c r="T11" s="20"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
+        <f t="shared" ref="A12:A16" si="1">A11+1</f>
         <v>3</v>
       </c>
       <c r="B12" s="1">
@@ -22709,80 +25349,81 @@
         <v>5</v>
       </c>
       <c r="D12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="4">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="F12" s="4">
         <v>0.95</v>
       </c>
       <c r="G12" s="4">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="H12" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I12" s="4">
         <v>0.1</v>
       </c>
       <c r="J12" s="24">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-4</v>
       </c>
       <c r="K12" s="24">
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="L12" s="19">
-        <v>1.7523148148148149E-2</v>
+        <v>4.3530092592592599E-2</v>
       </c>
       <c r="M12" s="9">
-        <v>3.6986760760920299E-2</v>
+        <v>2.9076785505662301E-2</v>
       </c>
       <c r="N12" s="9">
-        <v>3.6527176278844199E-2</v>
+        <v>2.83858953561839E-2</v>
       </c>
       <c r="O12" s="10">
-        <f t="shared" si="1"/>
-        <v>0.24814836491702905</v>
+        <f t="shared" ref="O12:O16" si="2">M12/$C$2</f>
+        <v>0.19507944550518508</v>
       </c>
       <c r="P12" s="10">
-        <f t="shared" si="2"/>
-        <v>0.49814492360861118</v>
+        <f t="shared" ref="P12:P16" si="3">SQRT(O12)</f>
+        <v>0.44167798847710882</v>
       </c>
       <c r="Q12" s="10">
-        <f t="shared" si="3"/>
-        <v>0.46785961336017995</v>
+        <f t="shared" ref="Q12:Q16" si="4">M12/$C$3</f>
+        <v>0.36780332596223708</v>
       </c>
       <c r="R12" s="10">
-        <f t="shared" si="4"/>
-        <v>0.68400264134006084</v>
+        <f t="shared" ref="R12:R16" si="5">SQRT(Q12)</f>
+        <v>0.60646791008448009</v>
       </c>
       <c r="T12" s="20"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B13" s="1">
         <v>15000</v>
       </c>
       <c r="C13" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="4">
         <v>50</v>
       </c>
       <c r="F13" s="4">
-        <v>1.5</v>
+        <v>0.95</v>
       </c>
       <c r="G13" s="4">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="H13" s="4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I13" s="4">
         <v>0.1</v>
@@ -22794,34 +25435,35 @@
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="L13" s="19">
-        <v>1.8553240740740742E-2</v>
+        <v>1.7523148148148149E-2</v>
       </c>
       <c r="M13" s="9">
-        <v>2.4383616789405101E-2</v>
+        <v>3.6986760760920299E-2</v>
       </c>
       <c r="N13" s="9">
-        <v>2.3277842710800099E-2</v>
+        <v>3.6527176278844199E-2</v>
       </c>
       <c r="O13" s="10">
-        <f t="shared" si="1"/>
-        <v>0.16359244531214631</v>
+        <f t="shared" si="2"/>
+        <v>0.24814836491702905</v>
       </c>
       <c r="P13" s="10">
-        <f t="shared" si="2"/>
-        <v>0.40446562933350261</v>
+        <f t="shared" si="3"/>
+        <v>0.49814492360861118</v>
       </c>
       <c r="Q13" s="10">
-        <f t="shared" si="3"/>
-        <v>0.30843764873477414</v>
+        <f t="shared" si="4"/>
+        <v>0.46785961336017995</v>
       </c>
       <c r="R13" s="10">
-        <f t="shared" si="4"/>
-        <v>0.55537163119372068</v>
+        <f t="shared" si="5"/>
+        <v>0.68400264134006084</v>
       </c>
       <c r="T13" s="20"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B14" s="1">
@@ -22831,7 +25473,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="4">
         <v>50</v>
@@ -22840,49 +25482,50 @@
         <v>1.5</v>
       </c>
       <c r="G14" s="4">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="H14" s="4">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I14" s="4">
         <v>0.1</v>
       </c>
       <c r="J14" s="24">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="K14" s="24">
-        <v>5.0000000000000001E-4</v>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="L14" s="19">
-        <v>1.7615740740740741E-2</v>
+        <v>1.8553240740740742E-2</v>
       </c>
       <c r="M14" s="9">
-        <v>3.7541719235048301E-2</v>
+        <v>2.4383616789405101E-2</v>
       </c>
       <c r="N14" s="9">
-        <v>3.7164858037091901E-2</v>
+        <v>2.3277842710800099E-2</v>
       </c>
       <c r="O14" s="10">
-        <f t="shared" si="1"/>
-        <v>0.25187164414231383</v>
+        <f t="shared" si="2"/>
+        <v>0.16359244531214631</v>
       </c>
       <c r="P14" s="10">
-        <f t="shared" si="2"/>
-        <v>0.50186815414241404</v>
+        <f t="shared" si="3"/>
+        <v>0.40446562933350261</v>
       </c>
       <c r="Q14" s="10">
-        <f t="shared" si="3"/>
-        <v>0.47487949430662979</v>
+        <f t="shared" si="4"/>
+        <v>0.30843764873477414</v>
       </c>
       <c r="R14" s="10">
-        <f t="shared" si="4"/>
-        <v>0.6891150080404792</v>
+        <f t="shared" si="5"/>
+        <v>0.55537163119372068</v>
       </c>
       <c r="T14" s="20"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B15" s="1">
@@ -22892,19 +25535,19 @@
         <v>7</v>
       </c>
       <c r="D15" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15" s="4">
         <v>50</v>
       </c>
       <c r="F15" s="4">
-        <v>0.95</v>
+        <v>1.5</v>
       </c>
       <c r="G15" s="4">
         <v>0.05</v>
       </c>
       <c r="H15" s="4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I15" s="4">
         <v>0.1</v>
@@ -22916,78 +25559,146 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="L15" s="19">
+        <v>1.7615740740740741E-2</v>
+      </c>
+      <c r="M15" s="9">
+        <v>3.7541719235048301E-2</v>
+      </c>
+      <c r="N15" s="9">
+        <v>3.7164858037091901E-2</v>
+      </c>
+      <c r="O15" s="10">
+        <f t="shared" si="2"/>
+        <v>0.25187164414231383</v>
+      </c>
+      <c r="P15" s="10">
+        <f t="shared" si="3"/>
+        <v>0.50186815414241404</v>
+      </c>
+      <c r="Q15" s="10">
+        <f t="shared" si="4"/>
+        <v>0.47487949430662979</v>
+      </c>
+      <c r="R15" s="10">
+        <f t="shared" si="5"/>
+        <v>0.6891150080404792</v>
+      </c>
+      <c r="T15" s="20"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B16" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C16" s="1">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="4">
+        <v>50</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="H16" s="4">
+        <v>42</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="J16" s="24">
+        <v>1E-4</v>
+      </c>
+      <c r="K16" s="24">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L16" s="19">
         <v>1.7384259259259262E-2</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M16" s="9">
         <v>3.8352130097308298E-2</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N16" s="9">
         <v>3.8110433764562801E-2</v>
       </c>
-      <c r="O15" s="10">
-        <f t="shared" si="1"/>
+      <c r="O16" s="10">
+        <f t="shared" si="2"/>
         <v>0.25730878235727478</v>
       </c>
-      <c r="P15" s="10">
-        <f t="shared" si="2"/>
+      <c r="P16" s="10">
+        <f t="shared" si="3"/>
         <v>0.50725613092132738</v>
       </c>
-      <c r="Q15" s="10">
-        <f t="shared" si="3"/>
+      <c r="Q16" s="10">
+        <f t="shared" si="4"/>
         <v>0.48513068973114137</v>
       </c>
-      <c r="R15" s="10">
-        <f t="shared" si="4"/>
+      <c r="R16" s="10">
+        <f t="shared" si="5"/>
         <v>0.69651323729785741</v>
       </c>
-      <c r="T15" s="20"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T16" s="20"/>
     </row>
-    <row r="17" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:20" x14ac:dyDescent="0.25">
       <c r="T17" s="20"/>
     </row>
-    <row r="18" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:20" x14ac:dyDescent="0.25">
       <c r="T18" s="20"/>
     </row>
-    <row r="19" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19">
+        <v>2.8592162177384899E-2</v>
+      </c>
+      <c r="K19" s="25">
+        <v>5.0000000000000001E-4</v>
+      </c>
       <c r="T19" s="20"/>
     </row>
-    <row r="20" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="9:20" x14ac:dyDescent="0.25">
       <c r="T20" s="20"/>
     </row>
-    <row r="21" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="9:20" x14ac:dyDescent="0.25">
       <c r="T21" s="20"/>
     </row>
-    <row r="22" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="9:20" x14ac:dyDescent="0.25">
       <c r="T22" s="20"/>
     </row>
-    <row r="23" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="9:20" x14ac:dyDescent="0.25">
       <c r="T23" s="20"/>
     </row>
-    <row r="24" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="9:20" x14ac:dyDescent="0.25">
       <c r="T24" s="20"/>
     </row>
-    <row r="25" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="9:20" x14ac:dyDescent="0.25">
       <c r="T25" s="20"/>
     </row>
-    <row r="26" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="9:20" x14ac:dyDescent="0.25">
       <c r="T26" s="20"/>
     </row>
-    <row r="27" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="9:20" x14ac:dyDescent="0.25">
       <c r="T27" s="20"/>
     </row>
-    <row r="29" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="9:20" x14ac:dyDescent="0.25">
       <c r="T29" s="14"/>
     </row>
-    <row r="30" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="9:20" x14ac:dyDescent="0.25">
       <c r="T30" s="14"/>
     </row>
-    <row r="31" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="9:20" x14ac:dyDescent="0.25">
       <c r="T31" s="14"/>
     </row>
-    <row r="32" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="9:20" x14ac:dyDescent="0.25">
       <c r="T32" s="14"/>
     </row>
     <row r="33" spans="20:20" x14ac:dyDescent="0.25">

--- a/src/final/unblurry/unblurry_results.xlsx
+++ b/src/final/unblurry/unblurry_results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="16" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="39">
   <si>
     <t>MSE</t>
   </si>
@@ -146,6 +146,9 @@
   <si>
     <t>Best</t>
   </si>
+  <si>
+    <t>Optimized</t>
+  </si>
 </sst>
 </file>
 
@@ -155,7 +158,7 @@
     <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
     <numFmt numFmtId="166" formatCode="[h]:mm:ss;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +223,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -297,7 +308,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -342,6 +353,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="3" fillId="3" borderId="2" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="7" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -3057,8 +3069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3099,10 +3111,10 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="29"/>
+      <c r="C5" s="30"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
@@ -3120,7 +3132,7 @@
         <f>'NN (v)'!D$8</f>
         <v>1</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="31">
         <f>'NN (v)'!G$8</f>
         <v>4.8611111111111104E-4</v>
       </c>
@@ -3165,7 +3177,7 @@
         <f>'RBF (v)'!D$8</f>
         <v>2</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="31">
         <f>'RBF (v)'!G$8</f>
         <v>2.1319444444444443E-2</v>
       </c>
@@ -3210,7 +3222,7 @@
         <f>'ESN (v)'!D$8</f>
         <v>1</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="31">
         <f>'ESN (v)'!L$8</f>
         <v>1.7824074074074076E-2</v>
       </c>
@@ -3259,7 +3271,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="32">
         <f t="shared" si="0"/>
         <v>1.7824074074074076E-2</v>
       </c>
@@ -3289,10 +3301,10 @@
       </c>
     </row>
     <row r="12" spans="2:13" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="29"/>
+      <c r="C12" s="30"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
@@ -3310,7 +3322,7 @@
         <f>'NN (u)'!D$8</f>
         <v>1</v>
       </c>
-      <c r="G13" s="30">
+      <c r="G13" s="31">
         <f>'NN (u)'!G$8</f>
         <v>6.134259259259259E-4</v>
       </c>
@@ -3355,7 +3367,7 @@
         <f>'RBF (u)'!D$8</f>
         <v>1</v>
       </c>
-      <c r="G14" s="30">
+      <c r="G14" s="31">
         <f>'RBF (u)'!G$8</f>
         <v>2.1296296296296299E-2</v>
       </c>
@@ -3400,33 +3412,33 @@
         <f>'ESN (u)'!D$8</f>
         <v>1</v>
       </c>
-      <c r="G15" s="30">
+      <c r="G15" s="31">
         <f>'ESN (u)'!L$8</f>
-        <v>1.8553240740740742E-2</v>
+        <v>2.9560185185185189E-2</v>
       </c>
       <c r="H15" s="22">
         <f>'ESN (u)'!M$8</f>
-        <v>2.4383616789405101E-2</v>
+        <v>2.3468715974459702E-2</v>
       </c>
       <c r="I15" s="22">
         <f>'ESN (u)'!N$8</f>
-        <v>2.3277842710800099E-2</v>
+        <v>2.2691396564518199E-2</v>
       </c>
       <c r="J15" s="10">
         <f>'ESN (u)'!O$8</f>
-        <v>0.16359244531214631</v>
+        <v>0.15745427217615662</v>
       </c>
       <c r="K15" s="10">
         <f>'ESN (u)'!P$8</f>
-        <v>0.40446562933350261</v>
+        <v>0.39680508083460403</v>
       </c>
       <c r="L15" s="10">
         <f>'ESN (u)'!Q$8</f>
-        <v>0.30843764873477414</v>
+        <v>0.15745427217615662</v>
       </c>
       <c r="M15" s="10">
         <f>'ESN (u)'!R$8</f>
-        <v>0.55537163119372068</v>
+        <v>0.39680508083460403</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
@@ -3449,33 +3461,33 @@
         <f t="shared" ref="F16" si="3">INDEX(F13:F15,MATCH(MIN($H$6:$H$8),$H$6:$H$8,))</f>
         <v>1</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="32">
         <f t="shared" ref="G16" si="4">INDEX(G13:G15,MATCH(MIN($H$6:$H$8),$H$6:$H$8,))</f>
-        <v>1.8553240740740742E-2</v>
+        <v>2.9560185185185189E-2</v>
       </c>
       <c r="H16" s="7">
         <f t="shared" ref="H16" si="5">INDEX(H13:H15,MATCH(MIN($H$6:$H$8),$H$6:$H$8,))</f>
-        <v>2.4383616789405101E-2</v>
+        <v>2.3468715974459702E-2</v>
       </c>
       <c r="I16" s="7">
         <f t="shared" ref="I16" si="6">INDEX(I13:I15,MATCH(MIN($H$6:$H$8),$H$6:$H$8,))</f>
-        <v>2.3277842710800099E-2</v>
+        <v>2.2691396564518199E-2</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ref="J16" si="7">INDEX(J13:J15,MATCH(MIN($H$6:$H$8),$H$6:$H$8,))</f>
-        <v>0.16359244531214631</v>
+        <v>0.15745427217615662</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ref="K16" si="8">INDEX(K13:K15,MATCH(MIN($H$6:$H$8),$H$6:$H$8,))</f>
-        <v>0.40446562933350261</v>
+        <v>0.39680508083460403</v>
       </c>
       <c r="L16" s="8">
         <f t="shared" ref="L16" si="9">INDEX(L13:L15,MATCH(MIN($H$6:$H$8),$H$6:$H$8,))</f>
-        <v>0.30843764873477414</v>
+        <v>0.15745427217615662</v>
       </c>
       <c r="M16" s="8">
         <f t="shared" ref="M16" si="10">INDEX(M13:M15,MATCH(MIN($H$6:$H$8),$H$6:$H$8,))</f>
-        <v>0.55537163119372068</v>
+        <v>0.39680508083460403</v>
       </c>
     </row>
   </sheetData>
@@ -25031,8 +25043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25106,59 +25118,59 @@
       </c>
       <c r="E8" s="7">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="F8" s="7">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="G8" s="7">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H8" s="7">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7">
         <f t="shared" si="0"/>
-        <v>1.0000000000000001E-5</v>
+        <v>0</v>
       </c>
       <c r="K8" s="7">
         <f t="shared" si="0"/>
-        <v>5.0000000000000004E-6</v>
+        <v>5.0000000000000003E-10</v>
       </c>
       <c r="L8" s="15">
         <f t="shared" si="0"/>
-        <v>1.8553240740740742E-2</v>
+        <v>2.9560185185185189E-2</v>
       </c>
       <c r="M8" s="7">
         <f t="shared" si="0"/>
-        <v>2.4383616789405101E-2</v>
+        <v>2.3468715974459702E-2</v>
       </c>
       <c r="N8" s="7">
         <f t="shared" si="0"/>
-        <v>2.3277842710800099E-2</v>
+        <v>2.2691396564518199E-2</v>
       </c>
       <c r="O8" s="8">
         <f t="shared" si="0"/>
-        <v>0.16359244531214631</v>
+        <v>0.15745427217615662</v>
       </c>
       <c r="P8" s="8">
         <f t="shared" si="0"/>
-        <v>0.40446562933350261</v>
+        <v>0.39680508083460403</v>
       </c>
       <c r="Q8" s="8">
         <f t="shared" si="0"/>
-        <v>0.30843764873477414</v>
+        <v>0.15745427217615662</v>
       </c>
       <c r="R8" s="8">
         <f t="shared" si="0"/>
-        <v>0.55537163119372068</v>
+        <v>0.39680508083460403</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -25647,13 +25659,13 @@
       </c>
       <c r="T16" s="20"/>
     </row>
-    <row r="17" spans="9:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="T17" s="20"/>
     </row>
-    <row r="18" spans="9:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="T18" s="20"/>
     </row>
-    <row r="19" spans="9:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I19" t="s">
         <v>33</v>
       </c>
@@ -25665,40 +25677,89 @@
       </c>
       <c r="T19" s="20"/>
     </row>
-    <row r="20" spans="9:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="O20" s="20"/>
       <c r="T20" s="20"/>
     </row>
-    <row r="21" spans="9:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C21" s="1">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
+        <v>200</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24">
+        <v>5.0000000000000003E-10</v>
+      </c>
+      <c r="L21" s="19">
+        <v>2.9560185185185189E-2</v>
+      </c>
+      <c r="M21" s="9">
+        <v>2.3468715974459702E-2</v>
+      </c>
+      <c r="N21" s="9">
+        <v>2.2691396564518199E-2</v>
+      </c>
+      <c r="O21" s="10">
+        <f>M21/$C$2</f>
+        <v>0.15745427217615662</v>
+      </c>
+      <c r="P21" s="10">
+        <f>SQRT(O21)</f>
+        <v>0.39680508083460403</v>
+      </c>
+      <c r="Q21" s="10">
+        <f>M21/$C$2</f>
+        <v>0.15745427217615662</v>
+      </c>
+      <c r="R21" s="10">
+        <f>SQRT(Q21)</f>
+        <v>0.39680508083460403</v>
+      </c>
       <c r="T21" s="20"/>
     </row>
-    <row r="22" spans="9:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="T22" s="20"/>
     </row>
-    <row r="23" spans="9:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="T23" s="20"/>
     </row>
-    <row r="24" spans="9:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="T24" s="20"/>
     </row>
-    <row r="25" spans="9:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="T25" s="20"/>
     </row>
-    <row r="26" spans="9:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="T26" s="20"/>
     </row>
-    <row r="27" spans="9:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="T27" s="20"/>
     </row>
-    <row r="29" spans="9:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="T29" s="14"/>
     </row>
-    <row r="30" spans="9:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="T30" s="14"/>
     </row>
-    <row r="31" spans="9:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="T31" s="14"/>
     </row>
-    <row r="32" spans="9:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="T32" s="14"/>
     </row>
     <row r="33" spans="20:20" x14ac:dyDescent="0.25">
